--- a/bangkit_ai/dataset_baby/BB-PB laki-laki 0-2 thn.xlsx
+++ b/bangkit_ai/dataset_baby/BB-PB laki-laki 0-2 thn.xlsx
@@ -2,121 +2,55 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/db6f9826e2b3023b/Documents/BANGKIT-MACHINE LEARNING/capstone/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programming\bangkit_dicoding\Machine-Learning\data\datasetbaby\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{D2B23B40-044E-4058-9117-CD7BF579A6CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{234E4CED-E524-43F9-A35F-55FB31BF6336}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{64A41CE1-EE3B-419D-92EE-F3BB6D4A8B14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" xr2:uid="{C29210E2-6CBD-4034-84D3-F8A8D0B7A87F}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="11370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-3 SD</t>
-    </r>
+    <t>Tinggi Badan</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-2 SD</t>
-    </r>
+    <t>-3 SD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>-1 SD</t>
-    </r>
+    <t>-2 SD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>Median</t>
-    </r>
+    <t>-1 SD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>+1 SD</t>
-    </r>
+    <t>Median</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>+2 SD</t>
-    </r>
+    <t>+1 SD</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-      </rPr>
-      <t>+3 SD</t>
-    </r>
+    <t>+2 SD</t>
   </si>
   <si>
-    <t>Tinggi Badan</t>
+    <t>+3 SD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,25 +59,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Cambria"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Cambria"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="6">
@@ -156,25 +74,29 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -184,90 +106,41 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" indent="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -277,10 +150,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -294,44 +163,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -358,32 +227,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -410,24 +261,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -439,3591 +272,5961 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7706D117-C253-4BD9-980A-887DDB5681B2}">
-  <dimension ref="A1:H132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H222"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="2"/>
+    <col min="3" max="3" width="8.7265625" style="3"/>
+    <col min="4" max="4" width="8.7265625" style="4"/>
+    <col min="5" max="5" width="8.7265625" style="5"/>
+    <col min="6" max="6" width="8.7265625" style="4"/>
+    <col min="7" max="7" width="8.7265625" style="3"/>
+    <col min="8" max="8" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="6" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="B2" s="2">
+        <v>-6.6030706089300537</v>
+      </c>
+      <c r="C2" s="3">
+        <v>-6.9231009509237733</v>
+      </c>
+      <c r="D2" s="4">
+        <v>-7.217195679576319</v>
+      </c>
+      <c r="E2" s="5">
+        <v>-7.5848852521897996</v>
+      </c>
+      <c r="F2" s="4">
+        <v>-7.913444397082058</v>
+      </c>
+      <c r="G2" s="3">
+        <v>-8.1940748488806268</v>
+      </c>
+      <c r="H2" s="2">
+        <v>-8.4940150042151448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>0.5</v>
+      </c>
+      <c r="B3" s="2">
+        <v>-6.5098241144246254</v>
+      </c>
+      <c r="C3" s="3">
+        <v>-6.824902610073579</v>
+      </c>
+      <c r="D3" s="4">
+        <v>-7.1147094319530506</v>
+      </c>
+      <c r="E3" s="5">
+        <v>-7.4770332452826018</v>
+      </c>
+      <c r="F3" s="4">
+        <v>-7.8004593479902331</v>
+      </c>
+      <c r="G3" s="3">
+        <v>-8.0768361131426349</v>
+      </c>
+      <c r="H3" s="2">
+        <v>-8.371885603067927</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="B4" s="2">
+        <v>-6.4165771177444766</v>
+      </c>
+      <c r="C4" s="3">
+        <v>-6.7266886346015289</v>
+      </c>
+      <c r="D4" s="4">
+        <v>-7.0121813236798509</v>
+      </c>
+      <c r="E4" s="5">
+        <v>-7.3691143856657604</v>
+      </c>
+      <c r="F4" s="4">
+        <v>-7.687374790830817</v>
+      </c>
+      <c r="G4" s="3">
+        <v>-7.9594502626135597</v>
+      </c>
+      <c r="H4" s="2">
+        <v>-8.2495571381816024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1.5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>-6.3233296188896091</v>
+      </c>
+      <c r="C5" s="3">
+        <v>-6.6284590245076238</v>
+      </c>
+      <c r="D5" s="4">
+        <v>-6.9096113547567199</v>
+      </c>
+      <c r="E5" s="5">
+        <v>-7.2611286733392753</v>
+      </c>
+      <c r="F5" s="4">
+        <v>-7.5741907256038106</v>
+      </c>
+      <c r="G5" s="3">
+        <v>-7.8419172972934019</v>
+      </c>
+      <c r="H5" s="2">
+        <v>-8.1270296095561747</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>2</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="B6" s="2">
+        <v>-6.2300816178600202</v>
+      </c>
+      <c r="C6" s="3">
+        <v>-6.5302137797918629</v>
+      </c>
+      <c r="D6" s="4">
+        <v>-6.8069995251836568</v>
+      </c>
+      <c r="E6" s="5">
+        <v>-7.1530761083031464</v>
+      </c>
+      <c r="F6" s="4">
+        <v>-7.460907152309213</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-7.7242372171821607</v>
+      </c>
+      <c r="H6" s="2">
+        <v>-8.0043030171916421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2.5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>-6.1368331146557127</v>
+      </c>
+      <c r="C7" s="3">
+        <v>-6.4319529004542462</v>
+      </c>
+      <c r="D7" s="4">
+        <v>-6.7043458349606624</v>
+      </c>
+      <c r="E7" s="5">
+        <v>-7.0449566905573731</v>
+      </c>
+      <c r="F7" s="4">
+        <v>-7.3475240709470242</v>
+      </c>
+      <c r="G7" s="3">
+        <v>-7.6064100222798361</v>
+      </c>
+      <c r="H7" s="2">
+        <v>-7.8813773610880036</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8">
         <v>3</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="B8" s="2">
+        <v>-6.0435841092766847</v>
+      </c>
+      <c r="C8" s="3">
+        <v>-6.3336763864947736</v>
+      </c>
+      <c r="D8" s="4">
+        <v>-6.6016502840877358</v>
+      </c>
+      <c r="E8" s="5">
+        <v>-6.936770420101956</v>
+      </c>
+      <c r="F8" s="4">
+        <v>-7.2340414815172442</v>
+      </c>
+      <c r="G8" s="3">
+        <v>-7.488435712586428</v>
+      </c>
+      <c r="H8" s="2">
+        <v>-7.7582526412452602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3.5</v>
+      </c>
+      <c r="B9" s="2">
+        <v>-5.9503346017229362</v>
+      </c>
+      <c r="C9" s="3">
+        <v>-6.235384237913447</v>
+      </c>
+      <c r="D9" s="4">
+        <v>-6.4989128725648788</v>
+      </c>
+      <c r="E9" s="5">
+        <v>-6.8285172969368961</v>
+      </c>
+      <c r="F9" s="4">
+        <v>-7.120459384019874</v>
+      </c>
+      <c r="G9" s="3">
+        <v>-7.3703142881019366</v>
+      </c>
+      <c r="H9" s="2">
+        <v>-7.6349288576634109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10">
         <v>4</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="B10" s="2">
+        <v>-5.857084591994469</v>
+      </c>
+      <c r="C10" s="3">
+        <v>-6.1370764547102654</v>
+      </c>
+      <c r="D10" s="4">
+        <v>-6.3961336003920897</v>
+      </c>
+      <c r="E10" s="5">
+        <v>-6.7201973210621917</v>
+      </c>
+      <c r="F10" s="4">
+        <v>-7.0067777784549126</v>
+      </c>
+      <c r="G10" s="3">
+        <v>-7.2520457488263634</v>
+      </c>
+      <c r="H10" s="2">
+        <v>-7.5114060103424576</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>4.5</v>
+      </c>
+      <c r="B11" s="2">
+        <v>-5.7638340800912804</v>
+      </c>
+      <c r="C11" s="3">
+        <v>-6.0387530368852254</v>
+      </c>
+      <c r="D11" s="4">
+        <v>-6.2933124675693692</v>
+      </c>
+      <c r="E11" s="5">
+        <v>-6.6118104924778436</v>
+      </c>
+      <c r="F11" s="4">
+        <v>-6.8929966648223608</v>
+      </c>
+      <c r="G11" s="3">
+        <v>-7.1336300947597069</v>
+      </c>
+      <c r="H11" s="2">
+        <v>-7.3876840992823993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>5</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="B12" s="2">
+        <v>-5.6705830660133731</v>
+      </c>
+      <c r="C12" s="3">
+        <v>-5.9404139844383321</v>
+      </c>
+      <c r="D12" s="4">
+        <v>-6.1904494740967184</v>
+      </c>
+      <c r="E12" s="5">
+        <v>-6.5033568111838518</v>
+      </c>
+      <c r="F12" s="4">
+        <v>-6.7791160431222179</v>
+      </c>
+      <c r="G12" s="3">
+        <v>-7.0150673259019669</v>
+      </c>
+      <c r="H12" s="2">
+        <v>-7.2637631244832352</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>5.5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>-5.5773315497607454</v>
+      </c>
+      <c r="C13" s="3">
+        <v>-5.8420592973695831</v>
+      </c>
+      <c r="D13" s="4">
+        <v>-6.0875446199741337</v>
+      </c>
+      <c r="E13" s="5">
+        <v>-6.3948362771802163</v>
+      </c>
+      <c r="F13" s="4">
+        <v>-6.6651359133544839</v>
+      </c>
+      <c r="G13" s="3">
+        <v>-6.8963574422531426</v>
+      </c>
+      <c r="H13" s="2">
+        <v>-7.1396430859449671</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A2" s="7">
+      <c r="B14" s="2">
+        <v>-5.4840795313333981</v>
+      </c>
+      <c r="C14" s="3">
+        <v>-5.7436889756789782</v>
+      </c>
+      <c r="D14" s="4">
+        <v>-5.9845979052016176</v>
+      </c>
+      <c r="E14" s="5">
+        <v>-6.2862488904669362</v>
+      </c>
+      <c r="F14" s="4">
+        <v>-6.5510562755191586</v>
+      </c>
+      <c r="G14" s="3">
+        <v>-6.7775004438132367</v>
+      </c>
+      <c r="H14" s="2">
+        <v>-7.0153239836675931</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>6.5</v>
+      </c>
+      <c r="B15" s="2">
+        <v>-5.3908270107313303</v>
+      </c>
+      <c r="C15" s="3">
+        <v>-5.6453030193665166</v>
+      </c>
+      <c r="D15" s="4">
+        <v>-5.8816093297791721</v>
+      </c>
+      <c r="E15" s="5">
+        <v>-6.1775946510440134</v>
+      </c>
+      <c r="F15" s="4">
+        <v>-6.436877129616243</v>
+      </c>
+      <c r="G15" s="3">
+        <v>-6.6584963305822473</v>
+      </c>
+      <c r="H15" s="2">
+        <v>-6.8908058176511151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>7</v>
+      </c>
+      <c r="B16" s="2">
+        <v>-5.2975739879545429</v>
+      </c>
+      <c r="C16" s="3">
+        <v>-5.5469014284322018</v>
+      </c>
+      <c r="D16" s="4">
+        <v>-5.7785788937067926</v>
+      </c>
+      <c r="E16" s="5">
+        <v>-6.068873558911446</v>
+      </c>
+      <c r="F16" s="4">
+        <v>-6.3225984756457372</v>
+      </c>
+      <c r="G16" s="3">
+        <v>-6.5393451025601754</v>
+      </c>
+      <c r="H16" s="2">
+        <v>-6.7660885878955312</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>7.5</v>
+      </c>
+      <c r="B17" s="2">
+        <v>-5.204320463003036</v>
+      </c>
+      <c r="C17" s="3">
+        <v>-5.4484842028760312</v>
+      </c>
+      <c r="D17" s="4">
+        <v>-5.6755065969844836</v>
+      </c>
+      <c r="E17" s="5">
+        <v>-5.9600856140692358</v>
+      </c>
+      <c r="F17" s="4">
+        <v>-6.2082203136076393</v>
+      </c>
+      <c r="G17" s="3">
+        <v>-6.4200467597470183</v>
+      </c>
+      <c r="H17" s="2">
+        <v>-6.6411722944008416</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18">
+        <v>8</v>
+      </c>
+      <c r="B18" s="2">
+        <v>-5.1110664358768094</v>
+      </c>
+      <c r="C18" s="3">
+        <v>-5.3500513426980039</v>
+      </c>
+      <c r="D18" s="4">
+        <v>-5.5723924396122424</v>
+      </c>
+      <c r="E18" s="5">
+        <v>-5.851230816517381</v>
+      </c>
+      <c r="F18" s="4">
+        <v>-6.0937426435019511</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-6.3006013021427787</v>
+      </c>
+      <c r="H18" s="2">
+        <v>-6.5160569371670487</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19">
+        <v>8.5</v>
+      </c>
+      <c r="B19" s="2">
+        <v>-5.0178119065758624</v>
+      </c>
+      <c r="C19" s="3">
+        <v>-5.2516028478981216</v>
+      </c>
+      <c r="D19" s="4">
+        <v>-5.46923642159007</v>
+      </c>
+      <c r="E19" s="5">
+        <v>-5.7423091662558834</v>
+      </c>
+      <c r="F19" s="4">
+        <v>-5.9791654653286717</v>
+      </c>
+      <c r="G19" s="3">
+        <v>-6.1810087297474574</v>
+      </c>
+      <c r="H19" s="2">
+        <v>-6.3907425161941491</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" s="2">
+        <v>-4.9245568751001949</v>
+      </c>
+      <c r="C20" s="3">
+        <v>-5.1531387184763844</v>
+      </c>
+      <c r="D20" s="4">
+        <v>-5.3660385429179653</v>
+      </c>
+      <c r="E20" s="5">
+        <v>-5.6333206632847403</v>
+      </c>
+      <c r="F20" s="4">
+        <v>-5.8644887790878011</v>
+      </c>
+      <c r="G20" s="3">
+        <v>-6.0612690425610509</v>
+      </c>
+      <c r="H20" s="2">
+        <v>-6.2652290314821446</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21">
+        <v>9.5</v>
+      </c>
+      <c r="B21" s="2">
+        <v>-4.8313013414498078</v>
+      </c>
+      <c r="C21" s="3">
+        <v>-5.0546589544327896</v>
+      </c>
+      <c r="D21" s="4">
+        <v>-5.2627988035959294</v>
+      </c>
+      <c r="E21" s="5">
+        <v>-5.5242653076039554</v>
+      </c>
+      <c r="F21" s="4">
+        <v>-5.7497125847793402</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-5.9413822405835628</v>
+      </c>
+      <c r="H21" s="2">
+        <v>-6.1395164830310369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22">
+        <v>10</v>
+      </c>
+      <c r="B22" s="2">
+        <v>-4.7380453056247003</v>
+      </c>
+      <c r="C22" s="3">
+        <v>-4.9561635557673416</v>
+      </c>
+      <c r="D22" s="4">
+        <v>-5.1595172036239623</v>
+      </c>
+      <c r="E22" s="5">
+        <v>-5.4151430992135241</v>
+      </c>
+      <c r="F22" s="4">
+        <v>-5.6348368824032882</v>
+      </c>
+      <c r="G22" s="3">
+        <v>-5.8213483238149912</v>
+      </c>
+      <c r="H22" s="2">
+        <v>-6.0136048708408234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23">
+        <v>10.5</v>
+      </c>
+      <c r="B23" s="2">
+        <v>-4.644788767624874</v>
+      </c>
+      <c r="C23" s="3">
+        <v>-4.8576525224800378</v>
+      </c>
+      <c r="D23" s="4">
+        <v>-5.0561937430020638</v>
+      </c>
+      <c r="E23" s="5">
+        <v>-5.30595403811345</v>
+      </c>
+      <c r="F23" s="4">
+        <v>-5.5198616719596458</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-5.7011672922553362</v>
+      </c>
+      <c r="H23" s="2">
+        <v>-5.8874941949115041</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24">
+        <v>11</v>
+      </c>
+      <c r="B24" s="2">
+        <v>-4.5515317274503273</v>
+      </c>
+      <c r="C24" s="3">
+        <v>-4.759125854570879</v>
+      </c>
+      <c r="D24" s="4">
+        <v>-4.9528284217302332</v>
+      </c>
+      <c r="E24" s="5">
+        <v>-5.1966981243037331</v>
+      </c>
+      <c r="F24" s="4">
+        <v>-5.4047869534484114</v>
+      </c>
+      <c r="G24" s="3">
+        <v>-5.5808391459045978</v>
+      </c>
+      <c r="H24" s="2">
+        <v>-5.7611844552430789</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25">
+        <v>11.5</v>
+      </c>
+      <c r="B25" s="2">
+        <v>-4.458274185101061</v>
+      </c>
+      <c r="C25" s="3">
+        <v>-4.6605835520398644</v>
+      </c>
+      <c r="D25" s="4">
+        <v>-4.8494212398084713</v>
+      </c>
+      <c r="E25" s="5">
+        <v>-5.0873753577843717</v>
+      </c>
+      <c r="F25" s="4">
+        <v>-5.2896127268695876</v>
+      </c>
+      <c r="G25" s="3">
+        <v>-5.4603638847627778</v>
+      </c>
+      <c r="H25" s="2">
+        <v>-5.6346756518355514</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26">
+        <v>12</v>
+      </c>
+      <c r="B26" s="2">
+        <v>-4.3650161405770742</v>
+      </c>
+      <c r="C26" s="3">
+        <v>-4.5620256148869931</v>
+      </c>
+      <c r="D26" s="4">
+        <v>-4.7459721972367781</v>
+      </c>
+      <c r="E26" s="5">
+        <v>-4.9779857385553674</v>
+      </c>
+      <c r="F26" s="4">
+        <v>-5.1743389922231717</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-5.3397415088298734</v>
+      </c>
+      <c r="H26" s="2">
+        <v>-5.5079677846889146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27">
+        <v>12.5</v>
+      </c>
+      <c r="B27" s="2">
+        <v>-4.2717575938783678</v>
+      </c>
+      <c r="C27" s="3">
+        <v>-4.463452043112266</v>
+      </c>
+      <c r="D27" s="4">
+        <v>-4.6424812940151519</v>
+      </c>
+      <c r="E27" s="5">
+        <v>-4.8685292666167186</v>
+      </c>
+      <c r="F27" s="4">
+        <v>-5.0589657495091664</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-5.2189720181058856</v>
+      </c>
+      <c r="H27" s="2">
+        <v>-5.3810608538031772</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28">
+        <v>13</v>
+      </c>
+      <c r="B28" s="2">
+        <v>-4.178498545004941</v>
+      </c>
+      <c r="C28" s="3">
+        <v>-4.3648628367156848</v>
+      </c>
+      <c r="D28" s="4">
+        <v>-4.5389485301435961</v>
+      </c>
+      <c r="E28" s="5">
+        <v>-4.7590059419684252</v>
+      </c>
+      <c r="F28" s="4">
+        <v>-4.9434929987275682</v>
+      </c>
+      <c r="G28" s="3">
+        <v>-5.0980554125908153</v>
+      </c>
+      <c r="H28" s="2">
+        <v>-5.2539548591783323</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29">
+        <v>13.5</v>
+      </c>
+      <c r="B29" s="2">
+        <v>-4.0852389939567946</v>
+      </c>
+      <c r="C29" s="3">
+        <v>-4.2662579956972486</v>
+      </c>
+      <c r="D29" s="4">
+        <v>-4.4353739056221073</v>
+      </c>
+      <c r="E29" s="5">
+        <v>-4.649415764610489</v>
+      </c>
+      <c r="F29" s="4">
+        <v>-4.8279207398783797</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-4.9769916922846624</v>
+      </c>
+      <c r="H29" s="2">
+        <v>-5.1266498008143833</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30">
+        <v>14</v>
+      </c>
+      <c r="B30" s="2">
+        <v>-3.991978940733929</v>
+      </c>
+      <c r="C30" s="3">
+        <v>-4.1676375200569549</v>
+      </c>
+      <c r="D30" s="4">
+        <v>-4.3317574204506881</v>
+      </c>
+      <c r="E30" s="5">
+        <v>-4.5397587345429091</v>
+      </c>
+      <c r="F30" s="4">
+        <v>-4.7122489729616008</v>
+      </c>
+      <c r="G30" s="3">
+        <v>-4.8557808571874244</v>
+      </c>
+      <c r="H30" s="2">
+        <v>-4.9991456787113293</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31">
+        <v>14.5</v>
+      </c>
+      <c r="B31" s="2">
+        <v>-3.898718385336343</v>
+      </c>
+      <c r="C31" s="3">
+        <v>-4.069001409794808</v>
+      </c>
+      <c r="D31" s="4">
+        <v>-4.2280990746293368</v>
+      </c>
+      <c r="E31" s="5">
+        <v>-4.4300348517656847</v>
+      </c>
+      <c r="F31" s="4">
+        <v>-4.5964776979772317</v>
+      </c>
+      <c r="G31" s="3">
+        <v>-4.7344229072991046</v>
+      </c>
+      <c r="H31" s="2">
+        <v>-4.8714424928691704</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32">
+        <v>15</v>
+      </c>
+      <c r="B32" s="2">
+        <v>-3.8054573277640369</v>
+      </c>
+      <c r="C32" s="3">
+        <v>-3.9703496649108039</v>
+      </c>
+      <c r="D32" s="4">
+        <v>-4.124398868158055</v>
+      </c>
+      <c r="E32" s="5">
+        <v>-4.3202441162788174</v>
+      </c>
+      <c r="F32" s="4">
+        <v>-4.4806069149252696</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-4.6129178426197024</v>
+      </c>
+      <c r="H32" s="2">
+        <v>-4.7435402432879057</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33">
+        <v>15.5</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-3.7121957680170108</v>
+      </c>
+      <c r="C33" s="3">
+        <v>-3.8716822854049449</v>
+      </c>
+      <c r="D33" s="4">
+        <v>-4.0206568010368402</v>
+      </c>
+      <c r="E33" s="5">
+        <v>-4.2103865280823056</v>
+      </c>
+      <c r="F33" s="4">
+        <v>-4.364636623805719</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-4.4912656631492149</v>
+      </c>
+      <c r="H33" s="2">
+        <v>-4.615438929967536</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34">
+        <v>16</v>
+      </c>
+      <c r="B34" s="2">
+        <v>-3.6189337060952651</v>
+      </c>
+      <c r="C34" s="3">
+        <v>-3.77299927127723</v>
+      </c>
+      <c r="D34" s="4">
+        <v>-3.916872873265695</v>
+      </c>
+      <c r="E34" s="5">
+        <v>-4.1004620871761501</v>
+      </c>
+      <c r="F34" s="4">
+        <v>-4.2485668246185764</v>
+      </c>
+      <c r="G34" s="3">
+        <v>-4.3694663688876458</v>
+      </c>
+      <c r="H34" s="2">
+        <v>-4.4871385529080614</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35">
+        <v>16.5</v>
+      </c>
+      <c r="B35" s="2">
+        <v>-3.5256711419987989</v>
+      </c>
+      <c r="C35" s="3">
+        <v>-3.6743006225276602</v>
+      </c>
+      <c r="D35" s="4">
+        <v>-3.8130470848446181</v>
+      </c>
+      <c r="E35" s="5">
+        <v>-3.9904707935603509</v>
+      </c>
+      <c r="F35" s="4">
+        <v>-4.1323975173638416</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-4.2475199598349933</v>
+      </c>
+      <c r="H35" s="2">
+        <v>-4.3586391121094819</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36">
+        <v>17</v>
+      </c>
+      <c r="B36" s="2">
+        <v>-3.4324080757276132</v>
+      </c>
+      <c r="C36" s="3">
+        <v>-3.575586339156235</v>
+      </c>
+      <c r="D36" s="4">
+        <v>-3.709179435773609</v>
+      </c>
+      <c r="E36" s="5">
+        <v>-3.8804126472349081</v>
+      </c>
+      <c r="F36" s="4">
+        <v>-4.0161287020415184</v>
+      </c>
+      <c r="G36" s="3">
+        <v>-4.1254264359912574</v>
+      </c>
+      <c r="H36" s="2">
+        <v>-4.2299406075717974</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37">
+        <v>17.5</v>
+      </c>
+      <c r="B37" s="2">
+        <v>-3.339144507281707</v>
+      </c>
+      <c r="C37" s="3">
+        <v>-3.476856421162954</v>
+      </c>
+      <c r="D37" s="4">
+        <v>-3.6052699260526682</v>
+      </c>
+      <c r="E37" s="5">
+        <v>-3.770287648199822</v>
+      </c>
+      <c r="F37" s="4">
+        <v>-3.8997603786516022</v>
+      </c>
+      <c r="G37" s="3">
+        <v>-4.003185797356438</v>
+      </c>
+      <c r="H37" s="2">
+        <v>-4.1010430392950079</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38">
+        <v>18</v>
+      </c>
+      <c r="B38" s="2">
+        <v>-3.2458804366610821</v>
+      </c>
+      <c r="C38" s="3">
+        <v>-3.3781108685478181</v>
+      </c>
+      <c r="D38" s="4">
+        <v>-3.5013185556817961</v>
+      </c>
+      <c r="E38" s="5">
+        <v>-3.6600957964550909</v>
+      </c>
+      <c r="F38" s="4">
+        <v>-3.783292547194097</v>
+      </c>
+      <c r="G38" s="3">
+        <v>-3.8807980439305361</v>
+      </c>
+      <c r="H38" s="2">
+        <v>-3.9719464072791131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39">
+        <v>18.5</v>
+      </c>
+      <c r="B39" s="2">
+        <v>-3.1526158638657371</v>
+      </c>
+      <c r="C39" s="3">
+        <v>-3.2793496813108258</v>
+      </c>
+      <c r="D39" s="4">
+        <v>-3.3973253246609931</v>
+      </c>
+      <c r="E39" s="5">
+        <v>-3.549837092000717</v>
+      </c>
+      <c r="F39" s="4">
+        <v>-3.6667252076689998</v>
+      </c>
+      <c r="G39" s="3">
+        <v>-3.7582631757135521</v>
+      </c>
+      <c r="H39" s="2">
+        <v>-3.8426507115241129</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40">
+        <v>19</v>
+      </c>
+      <c r="B40" s="2">
+        <v>-3.0593507888956708</v>
+      </c>
+      <c r="C40" s="3">
+        <v>-3.1805728594519791</v>
+      </c>
+      <c r="D40" s="4">
+        <v>-3.293290232990258</v>
+      </c>
+      <c r="E40" s="5">
+        <v>-3.4395115348366989</v>
+      </c>
+      <c r="F40" s="4">
+        <v>-3.5500583600763118</v>
+      </c>
+      <c r="G40" s="3">
+        <v>-3.6355811927054842</v>
+      </c>
+      <c r="H40" s="2">
+        <v>-3.713155952030009</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41">
+        <v>19.5</v>
+      </c>
+      <c r="B41" s="2">
+        <v>-2.9660852117508858</v>
+      </c>
+      <c r="C41" s="3">
+        <v>-3.0817804029712761</v>
+      </c>
+      <c r="D41" s="4">
+        <v>-3.1892132806695921</v>
+      </c>
+      <c r="E41" s="5">
+        <v>-3.3291191249630372</v>
+      </c>
+      <c r="F41" s="4">
+        <v>-3.4332920044160331</v>
+      </c>
+      <c r="G41" s="3">
+        <v>-3.512752094906332</v>
+      </c>
+      <c r="H41" s="2">
+        <v>-3.5834621287967989</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42">
+        <v>20</v>
+      </c>
+      <c r="B42" s="2">
+        <v>-2.8728191324313799</v>
+      </c>
+      <c r="C42" s="3">
+        <v>-2.9829723118687168</v>
+      </c>
+      <c r="D42" s="4">
+        <v>-3.085094467698994</v>
+      </c>
+      <c r="E42" s="5">
+        <v>-3.2186598623797309</v>
+      </c>
+      <c r="F42" s="4">
+        <v>-3.3164261406881632</v>
+      </c>
+      <c r="G42" s="3">
+        <v>-3.3897758823160968</v>
+      </c>
+      <c r="H42" s="2">
+        <v>-3.4535692418244839</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43">
+        <v>20.5</v>
+      </c>
+      <c r="B43" s="2">
+        <v>-2.7795525509371548</v>
+      </c>
+      <c r="C43" s="3">
+        <v>-2.884148586144303</v>
+      </c>
+      <c r="D43" s="4">
+        <v>-2.980933794078465</v>
+      </c>
+      <c r="E43" s="5">
+        <v>-3.1081337470867809</v>
+      </c>
+      <c r="F43" s="4">
+        <v>-3.199460768892703</v>
+      </c>
+      <c r="G43" s="3">
+        <v>-3.26665255493478</v>
+      </c>
+      <c r="H43" s="2">
+        <v>-3.3234772911130639</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44">
+        <v>21</v>
+      </c>
+      <c r="B44" s="2">
+        <v>-2.686285467268211</v>
+      </c>
+      <c r="C44" s="3">
+        <v>-2.7853092257980339</v>
+      </c>
+      <c r="D44" s="4">
+        <v>-2.876731259808003</v>
+      </c>
+      <c r="E44" s="5">
+        <v>-2.9975407790841881</v>
+      </c>
+      <c r="F44" s="4">
+        <v>-3.0823958890296508</v>
+      </c>
+      <c r="G44" s="3">
+        <v>-3.1433821127623789</v>
+      </c>
+      <c r="H44" s="2">
+        <v>-3.1931862766625398</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45">
+        <v>21.5</v>
+      </c>
+      <c r="B45" s="2">
+        <v>-2.593017881424545</v>
+      </c>
+      <c r="C45" s="3">
+        <v>-2.6864542308299089</v>
+      </c>
+      <c r="D45" s="4">
+        <v>-2.7724868648876102</v>
+      </c>
+      <c r="E45" s="5">
+        <v>-2.8868809583719499</v>
+      </c>
+      <c r="F45" s="4">
+        <v>-2.9652315010990091</v>
+      </c>
+      <c r="G45" s="3">
+        <v>-3.0199645557988948</v>
+      </c>
+      <c r="H45" s="2">
+        <v>-3.06269619847291</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46">
+        <v>22</v>
+      </c>
+      <c r="B46" s="2">
+        <v>-2.4997497934061599</v>
+      </c>
+      <c r="C46" s="3">
+        <v>-2.5875836012399289</v>
+      </c>
+      <c r="D46" s="4">
+        <v>-2.668200609317287</v>
+      </c>
+      <c r="E46" s="5">
+        <v>-2.7761542849500702</v>
+      </c>
+      <c r="F46" s="4">
+        <v>-2.847967605100775</v>
+      </c>
+      <c r="G46" s="3">
+        <v>-2.8963998840443259</v>
+      </c>
+      <c r="H46" s="2">
+        <v>-2.9320070565441738</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47">
+        <v>22.5</v>
+      </c>
+      <c r="B47" s="2">
+        <v>-2.406481203213056</v>
+      </c>
+      <c r="C47" s="3">
+        <v>-2.488697337028094</v>
+      </c>
+      <c r="D47" s="4">
+        <v>-2.5638724930970311</v>
+      </c>
+      <c r="E47" s="5">
+        <v>-2.6653607588185451</v>
+      </c>
+      <c r="F47" s="4">
+        <v>-2.7306042010349518</v>
+      </c>
+      <c r="G47" s="3">
+        <v>-2.7726880974986758</v>
+      </c>
+      <c r="H47" s="2">
+        <v>-2.8011188508763341</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48">
+        <v>23</v>
+      </c>
+      <c r="B48" s="2">
+        <v>-2.3132121108452308</v>
+      </c>
+      <c r="C48" s="3">
+        <v>-2.389795438194402</v>
+      </c>
+      <c r="D48" s="4">
+        <v>-2.4595025162268431</v>
+      </c>
+      <c r="E48" s="5">
+        <v>-2.5545003799773771</v>
+      </c>
+      <c r="F48" s="4">
+        <v>-2.6131412889015362</v>
+      </c>
+      <c r="G48" s="3">
+        <v>-2.6488291961619441</v>
+      </c>
+      <c r="H48" s="2">
+        <v>-2.6700315814693889</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49">
+        <v>23.5</v>
+      </c>
+      <c r="B49" s="2">
+        <v>-2.219942516302686</v>
+      </c>
+      <c r="C49" s="3">
+        <v>-2.290877904738855</v>
+      </c>
+      <c r="D49" s="4">
+        <v>-2.3550906787067238</v>
+      </c>
+      <c r="E49" s="5">
+        <v>-2.4435731484265641</v>
+      </c>
+      <c r="F49" s="4">
+        <v>-2.4955788687005298</v>
+      </c>
+      <c r="G49" s="3">
+        <v>-2.5248231800341272</v>
+      </c>
+      <c r="H49" s="2">
+        <v>-2.5387452483233388</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50">
+        <v>24</v>
+      </c>
+      <c r="B50" s="2">
+        <v>-2.1266724195854221</v>
+      </c>
+      <c r="C50" s="3">
+        <v>-2.1919447366614531</v>
+      </c>
+      <c r="D50" s="4">
+        <v>-2.250636980536675</v>
+      </c>
+      <c r="E50" s="5">
+        <v>-2.3325790641661079</v>
+      </c>
+      <c r="F50" s="4">
+        <v>-2.3779169404319331</v>
+      </c>
+      <c r="G50" s="3">
+        <v>-2.4006700491152269</v>
+      </c>
+      <c r="H50" s="2">
+        <v>-2.4072598514381842</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51">
+        <v>24.5</v>
+      </c>
+      <c r="B51" s="2">
+        <v>-2.0334018206934368</v>
+      </c>
+      <c r="C51" s="3">
+        <v>-2.0929959339621949</v>
+      </c>
+      <c r="D51" s="4">
+        <v>-2.1461414217166932</v>
+      </c>
+      <c r="E51" s="5">
+        <v>-2.2215181271960089</v>
+      </c>
+      <c r="F51" s="4">
+        <v>-2.2601555040957448</v>
+      </c>
+      <c r="G51" s="3">
+        <v>-2.276369803405244</v>
+      </c>
+      <c r="H51" s="2">
+        <v>-2.2755753908139238</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52">
+        <v>25</v>
+      </c>
+      <c r="B52" s="2">
+        <v>-1.9401307196267319</v>
+      </c>
+      <c r="C52" s="3">
+        <v>-1.9940314966410819</v>
+      </c>
+      <c r="D52" s="4">
+        <v>-2.0416040022467792</v>
+      </c>
+      <c r="E52" s="5">
+        <v>-2.1103903375162649</v>
+      </c>
+      <c r="F52" s="4">
+        <v>-2.1422945596919671</v>
+      </c>
+      <c r="G52" s="3">
+        <v>-2.1519224429041781</v>
+      </c>
+      <c r="H52" s="2">
+        <v>-2.1436918664505589</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53">
+        <v>25.5</v>
+      </c>
+      <c r="B53" s="2">
+        <v>-1.8468591163853081</v>
+      </c>
+      <c r="C53" s="3">
+        <v>-1.8950514246981141</v>
+      </c>
+      <c r="D53" s="4">
+        <v>-1.937024722126935</v>
+      </c>
+      <c r="E53" s="5">
+        <v>-1.999195695126877</v>
+      </c>
+      <c r="F53" s="4">
+        <v>-2.0243341072205969</v>
+      </c>
+      <c r="G53" s="3">
+        <v>-2.0273279676120279</v>
+      </c>
+      <c r="H53" s="2">
+        <v>-2.011609278348089</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54">
+        <v>26</v>
+      </c>
+      <c r="B54" s="2">
+        <v>-1.753587010969164</v>
+      </c>
+      <c r="C54" s="3">
+        <v>-1.796055718133289</v>
+      </c>
+      <c r="D54" s="4">
+        <v>-1.8324035813571591</v>
+      </c>
+      <c r="E54" s="5">
+        <v>-1.8879342000278461</v>
+      </c>
+      <c r="F54" s="4">
+        <v>-1.9062741466816371</v>
+      </c>
+      <c r="G54" s="3">
+        <v>-1.902586377528797</v>
+      </c>
+      <c r="H54" s="2">
+        <v>-1.8793276265065131</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55">
+        <v>26.5</v>
+      </c>
+      <c r="B55" s="2">
+        <v>-1.6603144033782991</v>
+      </c>
+      <c r="C55" s="3">
+        <v>-1.6970443769466099</v>
+      </c>
+      <c r="D55" s="4">
+        <v>-1.727740579937451</v>
+      </c>
+      <c r="E55" s="5">
+        <v>-1.776605852219171</v>
+      </c>
+      <c r="F55" s="4">
+        <v>-1.788114678075085</v>
+      </c>
+      <c r="G55" s="3">
+        <v>-1.77769767265448</v>
+      </c>
+      <c r="H55" s="2">
+        <v>-1.746846910925832</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56">
+        <v>27</v>
+      </c>
+      <c r="B56" s="2">
+        <v>-1.5670412936127149</v>
+      </c>
+      <c r="C56" s="3">
+        <v>-1.598017401138075</v>
+      </c>
+      <c r="D56" s="4">
+        <v>-1.623035717867811</v>
+      </c>
+      <c r="E56" s="5">
+        <v>-1.665210651700852</v>
+      </c>
+      <c r="F56" s="4">
+        <v>-1.6698557014009441</v>
+      </c>
+      <c r="G56" s="3">
+        <v>-1.652661852989082</v>
+      </c>
+      <c r="H56" s="2">
+        <v>-1.614167131606048</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57">
+        <v>27.5</v>
+      </c>
+      <c r="B57" s="2">
+        <v>-1.473767681672411</v>
+      </c>
+      <c r="C57" s="3">
+        <v>-1.498974790707684</v>
+      </c>
+      <c r="D57" s="4">
+        <v>-1.518288995148241</v>
+      </c>
+      <c r="E57" s="5">
+        <v>-1.55374859847289</v>
+      </c>
+      <c r="F57" s="4">
+        <v>-1.5514972166592109</v>
+      </c>
+      <c r="G57" s="3">
+        <v>-1.527478918532601</v>
+      </c>
+      <c r="H57" s="2">
+        <v>-1.4812882885471581</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58">
+        <v>28</v>
+      </c>
+      <c r="B58" s="2">
+        <v>-1.3804935675573871</v>
+      </c>
+      <c r="C58" s="3">
+        <v>-1.3999165456554381</v>
+      </c>
+      <c r="D58" s="4">
+        <v>-1.413500411778738</v>
+      </c>
+      <c r="E58" s="5">
+        <v>-1.442219692535283</v>
+      </c>
+      <c r="F58" s="4">
+        <v>-1.433039223849887</v>
+      </c>
+      <c r="G58" s="3">
+        <v>-1.402148869285035</v>
+      </c>
+      <c r="H58" s="2">
+        <v>-1.348210381749162</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59">
+        <v>28.5</v>
+      </c>
+      <c r="B59" s="2">
+        <v>-1.287218951267644</v>
+      </c>
+      <c r="C59" s="3">
+        <v>-1.3008426659813359</v>
+      </c>
+      <c r="D59" s="4">
+        <v>-1.3086699677593041</v>
+      </c>
+      <c r="E59" s="5">
+        <v>-1.330623933888033</v>
+      </c>
+      <c r="F59" s="4">
+        <v>-1.3144817229729719</v>
+      </c>
+      <c r="G59" s="3">
+        <v>-1.2766717052463881</v>
+      </c>
+      <c r="H59" s="2">
+        <v>-1.2149334112120611</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60">
+        <v>29</v>
+      </c>
+      <c r="B60" s="2">
+        <v>-1.1939438328031799</v>
+      </c>
+      <c r="C60" s="3">
+        <v>-1.201753151685379</v>
+      </c>
+      <c r="D60" s="4">
+        <v>-1.2037976630899381</v>
+      </c>
+      <c r="E60" s="5">
+        <v>-1.2189613225311391</v>
+      </c>
+      <c r="F60" s="4">
+        <v>-1.195824714028467</v>
+      </c>
+      <c r="G60" s="3">
+        <v>-1.1510474264166559</v>
+      </c>
+      <c r="H60" s="2">
+        <v>-1.0814573769358551</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61">
+        <v>29.5</v>
+      </c>
+      <c r="B61" s="2">
+        <v>-1.1006682121639959</v>
+      </c>
+      <c r="C61" s="3">
+        <v>-1.102648002767566</v>
+      </c>
+      <c r="D61" s="4">
+        <v>-1.098883497770641</v>
+      </c>
+      <c r="E61" s="5">
+        <v>-1.107231858464601</v>
+      </c>
+      <c r="F61" s="4">
+        <v>-1.07706819701637</v>
+      </c>
+      <c r="G61" s="3">
+        <v>-1.025276032795841</v>
+      </c>
+      <c r="H61" s="2">
+        <v>-0.94778227892054545</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62">
+        <v>30</v>
+      </c>
+      <c r="B62" s="2">
+        <v>-1.0073920893500929</v>
+      </c>
+      <c r="C62" s="3">
+        <v>-1.003527219227899</v>
+      </c>
+      <c r="D62" s="4">
+        <v>-0.99392747180141328</v>
+      </c>
+      <c r="E62" s="5">
+        <v>-0.99543554168841997</v>
+      </c>
+      <c r="F62" s="4">
+        <v>-0.95821217193668229</v>
+      </c>
+      <c r="G62" s="3">
+        <v>-0.89935752438394445</v>
+      </c>
+      <c r="H62" s="2">
+        <v>-0.81390811716612976</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63">
+        <v>30.5</v>
+      </c>
+      <c r="B63" s="2">
+        <v>-0.91411546436146907</v>
+      </c>
+      <c r="C63" s="3">
+        <v>-0.90439080106637526</v>
+      </c>
+      <c r="D63" s="4">
+        <v>-0.88892958518225296</v>
+      </c>
+      <c r="E63" s="5">
+        <v>-0.8835723722025941</v>
+      </c>
+      <c r="F63" s="4">
+        <v>-0.83925663878940338</v>
+      </c>
+      <c r="G63" s="3">
+        <v>-0.77329190118096314</v>
+      </c>
+      <c r="H63" s="2">
+        <v>-0.67983489167260913</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64">
+        <v>31</v>
+      </c>
+      <c r="B64" s="2">
+        <v>-0.8208383371981256</v>
+      </c>
+      <c r="C64" s="3">
+        <v>-0.80523874828299657</v>
+      </c>
+      <c r="D64" s="4">
+        <v>-0.78388983791316047</v>
+      </c>
+      <c r="E64" s="5">
+        <v>-0.77164235000712544</v>
+      </c>
+      <c r="F64" s="4">
+        <v>-0.72020159757453506</v>
+      </c>
+      <c r="G64" s="3">
+        <v>-0.64707916318689929</v>
+      </c>
+      <c r="H64" s="2">
+        <v>-0.54556260243998356</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65">
+        <v>31.5</v>
+      </c>
+      <c r="B65" s="2">
+        <v>-0.72756070786006255</v>
+      </c>
+      <c r="C65" s="3">
+        <v>-0.70607106087776206</v>
+      </c>
+      <c r="D65" s="4">
+        <v>-0.67880822999413848</v>
+      </c>
+      <c r="E65" s="5">
+        <v>-0.65964547510201221</v>
+      </c>
+      <c r="F65" s="4">
+        <v>-0.60104704829207467</v>
+      </c>
+      <c r="G65" s="3">
+        <v>-0.52071931040175201</v>
+      </c>
+      <c r="H65" s="2">
+        <v>-0.41109124946825132</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66">
+        <v>32</v>
+      </c>
+      <c r="B66" s="2">
+        <v>-0.63428257634727903</v>
+      </c>
+      <c r="C66" s="3">
+        <v>-0.60688773885067171</v>
+      </c>
+      <c r="D66" s="4">
+        <v>-0.57368476142518343</v>
+      </c>
+      <c r="E66" s="5">
+        <v>-0.5475817474872553</v>
+      </c>
+      <c r="F66" s="4">
+        <v>-0.4817929909420231</v>
+      </c>
+      <c r="G66" s="3">
+        <v>-0.3942123428255222</v>
+      </c>
+      <c r="H66" s="2">
+        <v>-0.27642083275741669</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67">
+        <v>32.5</v>
+      </c>
+      <c r="B67" s="2">
+        <v>-0.54100394265977592</v>
+      </c>
+      <c r="C67" s="3">
+        <v>-0.50768878220172642</v>
+      </c>
+      <c r="D67" s="4">
+        <v>-0.4685194322062971</v>
+      </c>
+      <c r="E67" s="5">
+        <v>-0.4354511671628547</v>
+      </c>
+      <c r="F67" s="4">
+        <v>-0.36243942552438119</v>
+      </c>
+      <c r="G67" s="3">
+        <v>-0.26755826045820902</v>
+      </c>
+      <c r="H67" s="2">
+        <v>-0.1415513523074754</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68">
+        <v>33</v>
+      </c>
+      <c r="B68" s="2">
+        <v>-0.44772480679755228</v>
+      </c>
+      <c r="C68" s="3">
+        <v>-0.4084741909309253</v>
+      </c>
+      <c r="D68" s="4">
+        <v>-0.3633122423374795</v>
+      </c>
+      <c r="E68" s="5">
+        <v>-0.32325373412881042</v>
+      </c>
+      <c r="F68" s="4">
+        <v>-0.2429863520391482</v>
+      </c>
+      <c r="G68" s="3">
+        <v>-0.1407570632998123</v>
+      </c>
+      <c r="H68" s="2">
+        <v>-6.4828081184309383E-3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69">
+        <v>33.5</v>
+      </c>
+      <c r="B69" s="2">
+        <v>-0.35444516876060922</v>
+      </c>
+      <c r="C69" s="3">
+        <v>-0.30924396503826829</v>
+      </c>
+      <c r="D69" s="4">
+        <v>-0.25806319181873061</v>
+      </c>
+      <c r="E69" s="5">
+        <v>-0.2109894483851216</v>
+      </c>
+      <c r="F69" s="4">
+        <v>-0.1234337704863249</v>
+      </c>
+      <c r="G69" s="3">
+        <v>-1.3808751350332219E-2</v>
+      </c>
+      <c r="H69" s="2">
+        <v>0.12878479980972021</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70">
+        <v>34</v>
+      </c>
+      <c r="B70" s="2">
+        <v>-0.26116502854894641</v>
+      </c>
+      <c r="C70" s="3">
+        <v>-0.20999810452375639</v>
+      </c>
+      <c r="D70" s="4">
+        <v>-0.15277228065004961</v>
+      </c>
+      <c r="E70" s="5">
+        <v>-9.8658309931789923E-2</v>
+      </c>
+      <c r="F70" s="4">
+        <v>-3.7816808659103529E-3</v>
+      </c>
+      <c r="G70" s="3">
+        <v>0.1132866753902295</v>
+      </c>
+      <c r="H70" s="2">
+        <v>0.26425147147697642</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71">
+        <v>34.5</v>
+      </c>
+      <c r="B71" s="2">
+        <v>-0.16788438616256321</v>
+      </c>
+      <c r="C71" s="3">
+        <v>-0.11073660938738961</v>
+      </c>
+      <c r="D71" s="4">
+        <v>-4.7439508831436328E-2</v>
+      </c>
+      <c r="E71" s="5">
+        <v>1.3739681231186299E-2</v>
+      </c>
+      <c r="F71" s="4">
+        <v>0.1159699168220953</v>
+      </c>
+      <c r="G71" s="3">
+        <v>0.24052921692187651</v>
+      </c>
+      <c r="H71" s="2">
+        <v>0.3999172068833392</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72">
+        <v>35</v>
+      </c>
+      <c r="B72" s="2">
+        <v>-7.4603241601460368E-2</v>
+      </c>
+      <c r="C72" s="3">
+        <v>-1.1459479629166941E-2</v>
+      </c>
+      <c r="D72" s="4">
+        <v>5.79351236371064E-2</v>
+      </c>
+      <c r="E72" s="5">
+        <v>0.12620452510380439</v>
+      </c>
+      <c r="F72" s="4">
+        <v>0.23582102257769219</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0.36791887324460498</v>
+      </c>
+      <c r="H72" s="2">
+        <v>0.53578200602880344</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73">
+        <v>35.5</v>
+      </c>
+      <c r="B73" s="2">
+        <v>1.8678405134361139E-2</v>
+      </c>
+      <c r="C73" s="3">
+        <v>8.7833284750911567E-2</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.16335161675558221</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0.23873622168606801</v>
+      </c>
+      <c r="F73" s="4">
+        <v>0.35577163640087939</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0.49545564435841699</v>
+      </c>
+      <c r="H73" s="2">
+        <v>0.67184586891337439</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74">
+        <v>36</v>
+      </c>
+      <c r="B74" s="2">
+        <v>0.111960554044904</v>
+      </c>
+      <c r="C74" s="3">
+        <v>0.18714168375284501</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.26880997052398931</v>
+      </c>
+      <c r="E74" s="5">
+        <v>0.35133477097797527</v>
+      </c>
+      <c r="F74" s="4">
+        <v>0.47582175829165863</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0.62313953026331248</v>
+      </c>
+      <c r="H74" s="2">
+        <v>0.80810879553705206</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75">
+        <v>36.5</v>
+      </c>
+      <c r="B75" s="2">
+        <v>0.2052432051301665</v>
+      </c>
+      <c r="C75" s="3">
+        <v>0.28646571737663518</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.3743101849423276</v>
+      </c>
+      <c r="E75" s="5">
+        <v>0.46400017297952623</v>
+      </c>
+      <c r="F75" s="4">
+        <v>0.59597138825002638</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0.75097053095929134</v>
+      </c>
+      <c r="H75" s="2">
+        <v>0.94457078589983112</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76">
+        <v>37</v>
+      </c>
+      <c r="B76" s="2">
+        <v>0.2985263583901494</v>
+      </c>
+      <c r="C76" s="3">
+        <v>0.3858053856222794</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.47985226001059722</v>
+      </c>
+      <c r="E76" s="5">
+        <v>0.57673242769072175</v>
+      </c>
+      <c r="F76" s="4">
+        <v>0.7162205262759862</v>
+      </c>
+      <c r="G76" s="3">
+        <v>0.87894864644635184</v>
+      </c>
+      <c r="H76" s="2">
+        <v>1.0812318400017189</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77">
+        <v>37.5</v>
+      </c>
+      <c r="B77" s="2">
+        <v>0.39181001382485192</v>
+      </c>
+      <c r="C77" s="3">
+        <v>0.48516068848978028</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.58543619572879901</v>
+      </c>
+      <c r="E77" s="5">
+        <v>0.68953153511155918</v>
+      </c>
+      <c r="F77" s="4">
+        <v>0.83656917236953632</v>
+      </c>
+      <c r="G77" s="3">
+        <v>1.007073876724498</v>
+      </c>
+      <c r="H77" s="2">
+        <v>1.218091957842709</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78">
+        <v>38</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0.48509417143427402</v>
+      </c>
+      <c r="C78" s="3">
+        <v>0.58453162597913533</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0.69106199209693209</v>
+      </c>
+      <c r="E78" s="5">
+        <v>0.80239749524204029</v>
+      </c>
+      <c r="F78" s="4">
+        <v>0.9570173265306785</v>
+      </c>
+      <c r="G78" s="3">
+        <v>1.1353462217937249</v>
+      </c>
+      <c r="H78" s="2">
+        <v>1.3551511394228051</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79">
+        <v>38.5</v>
+      </c>
+      <c r="B79" s="2">
+        <v>0.5783788312184166</v>
+      </c>
+      <c r="C79" s="3">
+        <v>0.68391819809034615</v>
+      </c>
+      <c r="D79" s="4">
+        <v>0.79672964911499733</v>
+      </c>
+      <c r="E79" s="5">
+        <v>0.91533030808216687</v>
+      </c>
+      <c r="F79" s="4">
+        <v>1.077564988759411</v>
+      </c>
+      <c r="G79" s="3">
+        <v>1.2637656816540359</v>
+      </c>
+      <c r="H79" s="2">
+        <v>1.492409384742007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80">
+        <v>39</v>
+      </c>
+      <c r="B80" s="2">
+        <v>0.67166399317727876</v>
+      </c>
+      <c r="C80" s="3">
+        <v>0.7833204048234137</v>
+      </c>
+      <c r="D80" s="4">
+        <v>0.90243916678299207</v>
+      </c>
+      <c r="E80" s="5">
+        <v>1.0283299736319369</v>
+      </c>
+      <c r="F80" s="4">
+        <v>1.198212159055736</v>
+      </c>
+      <c r="G80" s="3">
+        <v>1.3923322563054319</v>
+      </c>
+      <c r="H80" s="2">
+        <v>1.629866693800313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81">
+        <v>39.5</v>
+      </c>
+      <c r="B81" s="2">
+        <v>0.76494965731086051</v>
+      </c>
+      <c r="C81" s="3">
+        <v>0.88273824617833618</v>
+      </c>
+      <c r="D81" s="4">
+        <v>1.0081905451009201</v>
+      </c>
+      <c r="E81" s="5">
+        <v>1.1413964918913511</v>
+      </c>
+      <c r="F81" s="4">
+        <v>1.3189588374196499</v>
+      </c>
+      <c r="G81" s="3">
+        <v>1.521045945747908</v>
+      </c>
+      <c r="H81" s="2">
+        <v>1.7675230665977251</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82">
+        <v>40</v>
+      </c>
+      <c r="B82" s="2">
+        <v>0.85823582361916273</v>
+      </c>
+      <c r="C82" s="3">
+        <v>0.98217172215511361</v>
+      </c>
+      <c r="D82" s="4">
+        <v>1.113983784068779</v>
+      </c>
+      <c r="E82" s="5">
+        <v>1.2545298628604089</v>
+      </c>
+      <c r="F82" s="4">
+        <v>1.4398050238511551</v>
+      </c>
+      <c r="G82" s="3">
+        <v>1.649906749981469</v>
+      </c>
+      <c r="H82" s="2">
+        <v>1.905378503134241</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83">
+        <v>40.5</v>
+      </c>
+      <c r="B83" s="2">
+        <v>0.95152249210218454</v>
+      </c>
+      <c r="C83" s="3">
+        <v>1.081620832753748</v>
+      </c>
+      <c r="D83" s="4">
+        <v>1.2198188836865711</v>
+      </c>
+      <c r="E83" s="5">
+        <v>1.36773008653911</v>
+      </c>
+      <c r="F83" s="4">
+        <v>1.5607507183502529</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1.7789146690061111</v>
+      </c>
+      <c r="H83" s="2">
+        <v>2.0434330034098629</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84">
+        <v>41</v>
+      </c>
+      <c r="B84" s="2">
+        <v>1.044809662759927</v>
+      </c>
+      <c r="C84" s="3">
+        <v>1.1810855779742351</v>
+      </c>
+      <c r="D84" s="4">
+        <v>1.325695843954293</v>
+      </c>
+      <c r="E84" s="5">
+        <v>1.480997162927455</v>
+      </c>
+      <c r="F84" s="4">
+        <v>1.6817959209169371</v>
+      </c>
+      <c r="G84" s="3">
+        <v>1.908069702821839</v>
+      </c>
+      <c r="H84" s="2">
+        <v>2.18168656742459</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85">
+        <v>41.5</v>
+      </c>
+      <c r="B85" s="2">
+        <v>1.1380973355923889</v>
+      </c>
+      <c r="C85" s="3">
+        <v>1.2805659578165789</v>
+      </c>
+      <c r="D85" s="4">
+        <v>1.4316146648719461</v>
+      </c>
+      <c r="E85" s="5">
+        <v>1.5943310920254441</v>
+      </c>
+      <c r="F85" s="4">
+        <v>1.802940631551216</v>
+      </c>
+      <c r="G85" s="3">
+        <v>2.0373718514286492</v>
+      </c>
+      <c r="H85" s="2">
+        <v>2.3201391951784198</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86">
+        <v>42</v>
+      </c>
+      <c r="B86" s="2">
+        <v>1.231385510599569</v>
+      </c>
+      <c r="C86" s="3">
+        <v>1.3800619722807801</v>
+      </c>
+      <c r="D86" s="4">
+        <v>1.5375753464395321</v>
+      </c>
+      <c r="E86" s="5">
+        <v>1.707731873833076</v>
+      </c>
+      <c r="F86" s="4">
+        <v>1.9241848502530841</v>
+      </c>
+      <c r="G86" s="3">
+        <v>2.1668211148265422</v>
+      </c>
+      <c r="H86" s="2">
+        <v>2.4587908866713568</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87">
+        <v>42.5</v>
+      </c>
+      <c r="B87" s="2">
+        <v>1.3246741877814709</v>
+      </c>
+      <c r="C87" s="3">
+        <v>1.479573621366834</v>
+      </c>
+      <c r="D87" s="4">
+        <v>1.6435778886570489</v>
+      </c>
+      <c r="E87" s="5">
+        <v>1.821199508350354</v>
+      </c>
+      <c r="F87" s="4">
+        <v>2.045528577022544</v>
+      </c>
+      <c r="G87" s="3">
+        <v>2.2964174930155181</v>
+      </c>
+      <c r="H87" s="2">
+        <v>2.5976416419033992</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88">
+        <v>43</v>
+      </c>
+      <c r="B88" s="2">
+        <v>1.4179633671380929</v>
+      </c>
+      <c r="C88" s="3">
+        <v>1.579100905074746</v>
+      </c>
+      <c r="D88" s="4">
+        <v>1.749622291524497</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1.934733995577274</v>
+      </c>
+      <c r="F88" s="4">
+        <v>2.1669718118595949</v>
+      </c>
+      <c r="G88" s="3">
+        <v>2.4261609859955762</v>
+      </c>
+      <c r="H88" s="2">
+        <v>2.7366914608745438</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89">
+        <v>43.5</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1.5112530486694351</v>
+      </c>
+      <c r="C89" s="3">
+        <v>1.678643823404512</v>
+      </c>
+      <c r="D89" s="4">
+        <v>1.855708555041877</v>
+      </c>
+      <c r="E89" s="5">
+        <v>2.0483353355138392</v>
+      </c>
+      <c r="F89" s="4">
+        <v>2.2885145547642369</v>
+      </c>
+      <c r="G89" s="3">
+        <v>2.5560515937667212</v>
+      </c>
+      <c r="H89" s="2">
+        <v>2.8759403435847961</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90">
+        <v>44</v>
+      </c>
+      <c r="B90" s="2">
+        <v>1.604543232375496</v>
+      </c>
+      <c r="C90" s="3">
+        <v>1.7782023763561321</v>
+      </c>
+      <c r="D90" s="4">
+        <v>1.961836679209187</v>
+      </c>
+      <c r="E90" s="5">
+        <v>2.1620035281600458</v>
+      </c>
+      <c r="F90" s="4">
+        <v>2.4101568057364702</v>
+      </c>
+      <c r="G90" s="3">
+        <v>2.6860893163289461</v>
+      </c>
+      <c r="H90" s="2">
+        <v>3.0153882900341551</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91">
+        <v>44.5</v>
+      </c>
+      <c r="B91" s="2">
+        <v>1.6978339182562769</v>
+      </c>
+      <c r="C91" s="3">
+        <v>1.87777656392961</v>
+      </c>
+      <c r="D91" s="4">
+        <v>2.0680066640264312</v>
+      </c>
+      <c r="E91" s="5">
+        <v>2.2757385735158979</v>
+      </c>
+      <c r="F91" s="4">
+        <v>2.5318985647762928</v>
+      </c>
+      <c r="G91" s="3">
+        <v>2.816274153682254</v>
+      </c>
+      <c r="H91" s="2">
+        <v>3.1550353002226159</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92">
         <v>45</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B92" s="2">
         <v>1.9</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C92" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D92" s="4">
         <v>2.2000000000000002</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E92" s="5">
         <v>2.4</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F92" s="4">
         <v>2.7</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G92" s="3">
         <v>3</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H92" s="2">
         <v>3.3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A3" s="7">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93">
         <v>45.5</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B93" s="2">
         <v>1.9</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C93" s="3">
         <v>2.1</v>
       </c>
-      <c r="D3" s="10">
+      <c r="D93" s="4">
         <v>2.2999999999999998</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E93" s="5">
         <v>2.5</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F93" s="4">
         <v>2.8</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G93" s="3">
         <v>3.1</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H93" s="2">
         <v>3.4</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A4" s="7">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94">
         <v>46</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B94" s="2">
         <v>2</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C94" s="3">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D4" s="10">
+      <c r="D94" s="4">
         <v>2.4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E94" s="5">
         <v>2.6</v>
       </c>
-      <c r="F4" s="5">
+      <c r="F94" s="4">
         <v>2.9</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G94" s="3">
         <v>3.1</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H94" s="2">
         <v>3.5</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A5" s="7">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95">
         <v>46.5</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B95" s="2">
         <v>2.1</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C95" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D5" s="10">
+      <c r="D95" s="4">
         <v>2.5</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E95" s="5">
         <v>2.7</v>
       </c>
-      <c r="F5" s="5">
+      <c r="F95" s="4">
         <v>3</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G95" s="3">
         <v>3.2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H95" s="2">
         <v>3.6</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A6" s="7">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96">
         <v>47</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B96" s="2">
         <v>2.1</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C96" s="3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="D6" s="10">
+      <c r="D96" s="4">
         <v>2.5</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E96" s="5">
         <v>2.8</v>
       </c>
-      <c r="F6" s="5">
+      <c r="F96" s="4">
         <v>3</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G96" s="3">
         <v>3.3</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H96" s="2">
         <v>3.7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A7" s="7">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97">
         <v>47.5</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B97" s="2">
         <v>2.2000000000000002</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C97" s="3">
         <v>2.4</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D97" s="4">
         <v>2.6</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E97" s="5">
         <v>2.9</v>
       </c>
-      <c r="F7" s="5">
+      <c r="F97" s="4">
         <v>3.1</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G97" s="3">
         <v>3.4</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H97" s="2">
         <v>3.8</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A8" s="7">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98">
         <v>48</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B98" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C98" s="3">
         <v>2.5</v>
       </c>
-      <c r="D8" s="10">
+      <c r="D98" s="4">
         <v>2.7</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E98" s="5">
         <v>2.9</v>
       </c>
-      <c r="F8" s="5">
+      <c r="F98" s="4">
         <v>3.2</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G98" s="3">
         <v>3.6</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H98" s="2">
         <v>3.9</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A9" s="7">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99">
         <v>48.5</v>
       </c>
-      <c r="B9" s="1">
+      <c r="B99" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C99" s="3">
         <v>2.6</v>
       </c>
-      <c r="D9" s="10">
+      <c r="D99" s="4">
         <v>2.8</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E99" s="5">
         <v>3</v>
       </c>
-      <c r="F9" s="5">
+      <c r="F99" s="4">
         <v>3.3</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G99" s="3">
         <v>3.7</v>
       </c>
-      <c r="H9" s="1">
+      <c r="H99" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A10" s="7">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100">
         <v>49</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B100" s="2">
         <v>2.4</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C100" s="3">
         <v>2.6</v>
       </c>
-      <c r="D10" s="10">
+      <c r="D100" s="4">
         <v>2.9</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E100" s="5">
         <v>3.1</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F100" s="4">
         <v>3.4</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G100" s="3">
         <v>3.8</v>
       </c>
-      <c r="H10" s="1">
+      <c r="H100" s="2">
         <v>4.2</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A11" s="7">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101">
         <v>49.5</v>
       </c>
-      <c r="B11" s="1">
+      <c r="B101" s="2">
         <v>2.5</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C101" s="3">
         <v>2.7</v>
       </c>
-      <c r="D11" s="10">
+      <c r="D101" s="4">
         <v>3</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E101" s="5">
         <v>3.2</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F101" s="4">
         <v>3.5</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G101" s="3">
         <v>3.9</v>
       </c>
-      <c r="H11" s="1">
+      <c r="H101" s="2">
         <v>4.3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A12" s="7">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102">
         <v>50</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B102" s="2">
         <v>2.6</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C102" s="3">
         <v>2.8</v>
       </c>
-      <c r="D12" s="10">
+      <c r="D102" s="4">
         <v>3</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E102" s="5">
         <v>3.3</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F102" s="4">
         <v>3.6</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G102" s="3">
         <v>4</v>
       </c>
-      <c r="H12" s="1">
+      <c r="H102" s="2">
         <v>4.4000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A13" s="7">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103">
         <v>50.5</v>
       </c>
-      <c r="B13" s="1">
+      <c r="B103" s="2">
         <v>2.7</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C103" s="3">
         <v>2.9</v>
       </c>
-      <c r="D13" s="10">
+      <c r="D103" s="4">
         <v>3.1</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E103" s="5">
         <v>3.4</v>
       </c>
-      <c r="F13" s="5">
+      <c r="F103" s="4">
         <v>3.8</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G103" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="H13" s="1">
+      <c r="H103" s="2">
         <v>4.5</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A14" s="7">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A104">
         <v>51</v>
       </c>
-      <c r="B14" s="1">
+      <c r="B104" s="2">
         <v>2.7</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C104" s="3">
         <v>3</v>
       </c>
-      <c r="D14" s="10">
+      <c r="D104" s="4">
         <v>3.2</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E104" s="5">
         <v>3.5</v>
       </c>
-      <c r="F14" s="5">
+      <c r="F104" s="4">
         <v>3.9</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G104" s="3">
         <v>4.2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="H104" s="2">
         <v>4.7</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A15" s="7">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A105">
         <v>51.5</v>
       </c>
-      <c r="B15" s="1">
+      <c r="B105" s="2">
         <v>2.8</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C105" s="3">
         <v>3.1</v>
       </c>
-      <c r="D15" s="10">
+      <c r="D105" s="4">
         <v>3.3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E105" s="5">
         <v>3.6</v>
       </c>
-      <c r="F15" s="5">
+      <c r="F105" s="4">
         <v>4</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G105" s="3">
         <v>4.4000000000000004</v>
       </c>
-      <c r="H15" s="1">
+      <c r="H105" s="2">
         <v>4.8</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A16" s="7">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A106">
         <v>52</v>
       </c>
-      <c r="B16" s="1">
+      <c r="B106" s="2">
         <v>2.9</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C106" s="3">
         <v>3.2</v>
       </c>
-      <c r="D16" s="10">
+      <c r="D106" s="4">
         <v>3.5</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E106" s="5">
         <v>3.8</v>
       </c>
-      <c r="F16" s="5">
+      <c r="F106" s="4">
         <v>4.0999999999999996</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G106" s="3">
         <v>4.5</v>
       </c>
-      <c r="H16" s="1">
+      <c r="H106" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A17" s="7">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A107">
         <v>52.5</v>
       </c>
-      <c r="B17" s="1">
+      <c r="B107" s="2">
         <v>3</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C107" s="3">
         <v>3.3</v>
       </c>
-      <c r="D17" s="10">
+      <c r="D107" s="4">
         <v>3.6</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E107" s="5">
         <v>3.9</v>
       </c>
-      <c r="F17" s="5">
+      <c r="F107" s="4">
         <v>4.2</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G107" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="H17" s="1">
+      <c r="H107" s="2">
         <v>5.0999999999999996</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A18" s="7">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A108">
         <v>53</v>
       </c>
-      <c r="B18" s="1">
+      <c r="B108" s="2">
         <v>3.1</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C108" s="3">
         <v>3.4</v>
       </c>
-      <c r="D18" s="10">
+      <c r="D108" s="4">
         <v>3.7</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E108" s="5">
         <v>4</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F108" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G108" s="3">
         <v>4.8</v>
       </c>
-      <c r="H18" s="1">
+      <c r="H108" s="2">
         <v>5.3</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A19" s="7">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A109">
         <v>53.5</v>
       </c>
-      <c r="B19" s="1">
+      <c r="B109" s="2">
         <v>3.2</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C109" s="3">
         <v>3.5</v>
       </c>
-      <c r="D19" s="10">
+      <c r="D109" s="4">
         <v>3.8</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E109" s="5">
         <v>4.0999999999999996</v>
       </c>
-      <c r="F19" s="5">
+      <c r="F109" s="4">
         <v>4.5</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G109" s="3">
         <v>4.9000000000000004</v>
       </c>
-      <c r="H19" s="1">
+      <c r="H109" s="2">
         <v>5.4</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A20" s="7">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A110">
         <v>54</v>
       </c>
-      <c r="B20" s="1">
+      <c r="B110" s="2">
         <v>3.3</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C110" s="3">
         <v>3.6</v>
       </c>
-      <c r="D20" s="10">
+      <c r="D110" s="4">
         <v>3.9</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E110" s="5">
         <v>4.3</v>
       </c>
-      <c r="F20" s="5">
+      <c r="F110" s="4">
         <v>4.7</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G110" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="H20" s="1">
+      <c r="H110" s="2">
         <v>5.6</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A21" s="7">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A111">
         <v>54.5</v>
       </c>
-      <c r="B21" s="1">
+      <c r="B111" s="2">
         <v>3.4</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C111" s="3">
         <v>3.7</v>
       </c>
-      <c r="D21" s="10">
+      <c r="D111" s="4">
         <v>4</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E111" s="5">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F21" s="5">
+      <c r="F111" s="4">
         <v>4.8</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G111" s="3">
         <v>5.3</v>
       </c>
-      <c r="H21" s="1">
+      <c r="H111" s="2">
         <v>5.8</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A22" s="7">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A112">
         <v>55</v>
       </c>
-      <c r="B22" s="1">
+      <c r="B112" s="2">
         <v>3.6</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C112" s="3">
         <v>3.8</v>
       </c>
-      <c r="D22" s="10">
+      <c r="D112" s="4">
         <v>4.2</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E112" s="5">
         <v>4.5</v>
       </c>
-      <c r="F22" s="5">
+      <c r="F112" s="4">
         <v>5</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G112" s="3">
         <v>5.4</v>
       </c>
-      <c r="H22" s="1">
+      <c r="H112" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A23" s="7">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A113">
         <v>55.5</v>
       </c>
-      <c r="B23" s="1">
+      <c r="B113" s="2">
         <v>3.7</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C113" s="3">
         <v>4</v>
       </c>
-      <c r="D23" s="10">
+      <c r="D113" s="4">
         <v>4.3</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E113" s="5">
         <v>4.7</v>
       </c>
-      <c r="F23" s="5">
+      <c r="F113" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G113" s="3">
         <v>5.6</v>
       </c>
-      <c r="H23" s="1">
+      <c r="H113" s="2">
         <v>6.1</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A24" s="7">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A114">
         <v>56</v>
       </c>
-      <c r="B24" s="1">
+      <c r="B114" s="2">
         <v>3.8</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C114" s="3">
         <v>4.0999999999999996</v>
       </c>
-      <c r="D24" s="10">
+      <c r="D114" s="4">
         <v>4.4000000000000004</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E114" s="5">
         <v>4.8</v>
       </c>
-      <c r="F24" s="5">
+      <c r="F114" s="4">
         <v>5.3</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G114" s="3">
         <v>5.8</v>
       </c>
-      <c r="H24" s="1">
+      <c r="H114" s="2">
         <v>6.3</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A25" s="7">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A115">
         <v>56.5</v>
       </c>
-      <c r="B25" s="1">
+      <c r="B115" s="2">
         <v>3.9</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C115" s="3">
         <v>4.2</v>
       </c>
-      <c r="D25" s="10">
+      <c r="D115" s="4">
         <v>4.5999999999999996</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E115" s="5">
         <v>5</v>
       </c>
-      <c r="F25" s="5">
+      <c r="F115" s="4">
         <v>5.4</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G115" s="3">
         <v>5.9</v>
       </c>
-      <c r="H25" s="1">
+      <c r="H115" s="2">
         <v>6.5</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A26" s="7">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A116">
         <v>57</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B116" s="2">
         <v>4</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C116" s="3">
         <v>4.3</v>
       </c>
-      <c r="D26" s="10">
+      <c r="D116" s="4">
         <v>4.7</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E116" s="5">
         <v>5.0999999999999996</v>
       </c>
-      <c r="F26" s="5">
+      <c r="F116" s="4">
         <v>5.6</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G116" s="3">
         <v>6.1</v>
       </c>
-      <c r="H26" s="1">
+      <c r="H116" s="2">
         <v>6.7</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A27" s="7">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A117">
         <v>57.5</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B117" s="2">
         <v>4.0999999999999996</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C117" s="3">
         <v>4.5</v>
       </c>
-      <c r="D27" s="10">
+      <c r="D117" s="4">
         <v>4.9000000000000004</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E117" s="5">
         <v>5.3</v>
       </c>
-      <c r="F27" s="5">
+      <c r="F117" s="4">
         <v>5.7</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G117" s="3">
         <v>6.3</v>
       </c>
-      <c r="H27" s="1">
+      <c r="H117" s="2">
         <v>6.9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A28" s="7">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A118">
         <v>58</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B118" s="2">
         <v>4.3</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C118" s="3">
         <v>4.5999999999999996</v>
       </c>
-      <c r="D28" s="10">
+      <c r="D118" s="4">
         <v>5</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E118" s="5">
         <v>5.4</v>
       </c>
-      <c r="F28" s="5">
+      <c r="F118" s="4">
         <v>5.9</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G118" s="3">
         <v>6.4</v>
       </c>
-      <c r="H28" s="1">
+      <c r="H118" s="2">
         <v>7.1</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A29" s="7">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A119">
         <v>58.5</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B119" s="2">
         <v>4.4000000000000004</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C119" s="3">
         <v>4.7</v>
       </c>
-      <c r="D29" s="10">
+      <c r="D119" s="4">
         <v>5.0999999999999996</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E119" s="5">
         <v>5.6</v>
       </c>
-      <c r="F29" s="5">
+      <c r="F119" s="4">
         <v>6.1</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G119" s="3">
         <v>6.6</v>
       </c>
-      <c r="H29" s="1">
+      <c r="H119" s="2">
         <v>7.2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A30" s="7">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A120">
         <v>59</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B120" s="2">
         <v>4.5</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C120" s="3">
         <v>4.8</v>
       </c>
-      <c r="D30" s="10">
+      <c r="D120" s="4">
         <v>5.3</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E120" s="5">
         <v>5.7</v>
       </c>
-      <c r="F30" s="5">
+      <c r="F120" s="4">
         <v>6.2</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G120" s="3">
         <v>6.8</v>
       </c>
-      <c r="H30" s="1">
+      <c r="H120" s="2">
         <v>7.4</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A31" s="7">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A121">
         <v>59.5</v>
       </c>
-      <c r="B31" s="1">
+      <c r="B121" s="2">
         <v>4.5999999999999996</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C121" s="3">
         <v>5</v>
       </c>
-      <c r="D31" s="10">
+      <c r="D121" s="4">
         <v>5.4</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E121" s="5">
         <v>5.9</v>
       </c>
-      <c r="F31" s="5">
+      <c r="F121" s="4">
         <v>6.4</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G121" s="3">
         <v>7</v>
       </c>
-      <c r="H31" s="1">
+      <c r="H121" s="2">
         <v>7.6</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A32" s="7">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A122">
         <v>60</v>
       </c>
-      <c r="B32" s="1">
+      <c r="B122" s="2">
         <v>4.7</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C122" s="3">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D32" s="10">
+      <c r="D122" s="4">
         <v>5.5</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E122" s="5">
         <v>6</v>
       </c>
-      <c r="F32" s="5">
+      <c r="F122" s="4">
         <v>6.5</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G122" s="3">
         <v>7.1</v>
       </c>
-      <c r="H32" s="1">
+      <c r="H122" s="2">
         <v>7.8</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A33" s="7">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A123">
         <v>60.5</v>
       </c>
-      <c r="B33" s="1">
+      <c r="B123" s="2">
         <v>4.8</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C123" s="3">
         <v>5.2</v>
       </c>
-      <c r="D33" s="10">
+      <c r="D123" s="4">
         <v>5.6</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E123" s="5">
         <v>6.1</v>
       </c>
-      <c r="F33" s="5">
+      <c r="F123" s="4">
         <v>6.7</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G123" s="3">
         <v>7.3</v>
       </c>
-      <c r="H33" s="1">
+      <c r="H123" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A34" s="7">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A124">
         <v>61</v>
       </c>
-      <c r="B34" s="1">
+      <c r="B124" s="2">
         <v>4.9000000000000004</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C124" s="3">
         <v>5.3</v>
       </c>
-      <c r="D34" s="10">
+      <c r="D124" s="4">
         <v>5.8</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E124" s="5">
         <v>6.3</v>
       </c>
-      <c r="F34" s="5">
+      <c r="F124" s="4">
         <v>6.8</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G124" s="3">
         <v>7.4</v>
       </c>
-      <c r="H34" s="1">
+      <c r="H124" s="2">
         <v>8.1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A35" s="7">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A125">
         <v>61.5</v>
       </c>
-      <c r="B35" s="1">
+      <c r="B125" s="2">
         <v>5</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C125" s="3">
         <v>5.4</v>
       </c>
-      <c r="D35" s="10">
+      <c r="D125" s="4">
         <v>5.9</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E125" s="5">
         <v>6.4</v>
       </c>
-      <c r="F35" s="5">
+      <c r="F125" s="4">
         <v>7</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G125" s="3">
         <v>7.6</v>
       </c>
-      <c r="H35" s="1">
+      <c r="H125" s="2">
         <v>8.3000000000000007</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A36" s="7">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A126">
         <v>62</v>
       </c>
-      <c r="B36" s="1">
+      <c r="B126" s="2">
         <v>5.0999999999999996</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C126" s="3">
         <v>5.6</v>
       </c>
-      <c r="D36" s="10">
+      <c r="D126" s="4">
         <v>6</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E126" s="5">
         <v>6.5</v>
       </c>
-      <c r="F36" s="5">
+      <c r="F126" s="4">
         <v>7.1</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G126" s="3">
         <v>7.7</v>
       </c>
-      <c r="H36" s="1">
+      <c r="H126" s="2">
         <v>8.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A37" s="7">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A127">
         <v>62.5</v>
       </c>
-      <c r="B37" s="1">
+      <c r="B127" s="2">
         <v>5.2</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C127" s="3">
         <v>5.7</v>
       </c>
-      <c r="D37" s="10">
+      <c r="D127" s="4">
         <v>6.1</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E127" s="5">
         <v>6.7</v>
       </c>
-      <c r="F37" s="5">
+      <c r="F127" s="4">
         <v>7.2</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G127" s="3">
         <v>7.9</v>
       </c>
-      <c r="H37" s="1">
+      <c r="H127" s="2">
         <v>8.6</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A38" s="7">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A128">
         <v>63</v>
       </c>
-      <c r="B38" s="1">
+      <c r="B128" s="2">
         <v>5.3</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C128" s="3">
         <v>5.8</v>
       </c>
-      <c r="D38" s="10">
+      <c r="D128" s="4">
         <v>6.2</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E128" s="5">
         <v>6.8</v>
       </c>
-      <c r="F38" s="5">
+      <c r="F128" s="4">
         <v>7.4</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G128" s="3">
         <v>8</v>
       </c>
-      <c r="H38" s="1">
+      <c r="H128" s="2">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A39" s="7">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A129">
         <v>63.5</v>
       </c>
-      <c r="B39" s="1">
+      <c r="B129" s="2">
         <v>5.4</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C129" s="3">
         <v>5.9</v>
       </c>
-      <c r="D39" s="10">
+      <c r="D129" s="4">
         <v>6.4</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E129" s="5">
         <v>6.9</v>
       </c>
-      <c r="F39" s="5">
+      <c r="F129" s="4">
         <v>7.5</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G129" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H129" s="2">
         <v>8.9</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A40" s="7">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A130">
         <v>64</v>
       </c>
-      <c r="B40" s="1">
+      <c r="B130" s="2">
         <v>5.5</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C130" s="3">
         <v>6</v>
       </c>
-      <c r="D40" s="10">
+      <c r="D130" s="4">
         <v>6.5</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E130" s="5">
         <v>7</v>
       </c>
-      <c r="F40" s="5">
+      <c r="F130" s="4">
         <v>7.6</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G130" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="H40" s="1">
+      <c r="H130" s="2">
         <v>9.1</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A41" s="7">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A131">
         <v>64.5</v>
       </c>
-      <c r="B41" s="1">
+      <c r="B131" s="2">
         <v>5.6</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C131" s="3">
         <v>6.1</v>
       </c>
-      <c r="D41" s="10">
+      <c r="D131" s="4">
         <v>6.6</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E131" s="5">
         <v>7.1</v>
       </c>
-      <c r="F41" s="5">
+      <c r="F131" s="4">
         <v>7.8</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G131" s="3">
         <v>8.5</v>
       </c>
-      <c r="H41" s="1">
+      <c r="H131" s="2">
         <v>9.3000000000000007</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A42" s="7">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A132">
         <v>65</v>
       </c>
-      <c r="B42" s="1">
+      <c r="B132" s="2">
         <v>5.7</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C132" s="3">
         <v>6.2</v>
       </c>
-      <c r="D42" s="10">
+      <c r="D132" s="4">
         <v>6.7</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E132" s="5">
         <v>7.3</v>
       </c>
-      <c r="F42" s="5">
+      <c r="F132" s="4">
         <v>7.9</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G132" s="3">
         <v>8.6</v>
       </c>
-      <c r="H42" s="1">
+      <c r="H132" s="2">
         <v>9.4</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A43" s="7">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A133">
         <v>65.5</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B133" s="2">
         <v>5.8</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C133" s="3">
         <v>6.3</v>
       </c>
-      <c r="D43" s="10">
+      <c r="D133" s="4">
         <v>6.8</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E133" s="5">
         <v>7.4</v>
       </c>
-      <c r="F43" s="5">
+      <c r="F133" s="4">
         <v>8</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G133" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="H43" s="1">
+      <c r="H133" s="2">
         <v>9.6</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A44" s="7">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A134">
         <v>66</v>
       </c>
-      <c r="B44" s="1">
+      <c r="B134" s="2">
         <v>5.9</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C134" s="3">
         <v>6.4</v>
       </c>
-      <c r="D44" s="10">
+      <c r="D134" s="4">
         <v>6.9</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E134" s="5">
         <v>7.5</v>
       </c>
-      <c r="F44" s="5">
+      <c r="F134" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G134" s="3">
         <v>8.9</v>
       </c>
-      <c r="H44" s="1">
+      <c r="H134" s="2">
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A45" s="7">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A135">
         <v>66.5</v>
       </c>
-      <c r="B45" s="1">
+      <c r="B135" s="2">
         <v>6</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C135" s="3">
         <v>6.5</v>
       </c>
-      <c r="D45" s="10">
+      <c r="D135" s="4">
         <v>7</v>
       </c>
-      <c r="E45" s="4">
+      <c r="E135" s="5">
         <v>7.6</v>
       </c>
-      <c r="F45" s="5">
+      <c r="F135" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G135" s="3">
         <v>9</v>
       </c>
-      <c r="H45" s="1">
+      <c r="H135" s="2">
         <v>9.9</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A46" s="7">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A136">
         <v>67</v>
       </c>
-      <c r="B46" s="1">
+      <c r="B136" s="2">
         <v>6.1</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C136" s="3">
         <v>6.6</v>
       </c>
-      <c r="D46" s="10">
+      <c r="D136" s="4">
         <v>7.1</v>
       </c>
-      <c r="E46" s="4">
+      <c r="E136" s="5">
         <v>7.7</v>
       </c>
-      <c r="F46" s="5">
+      <c r="F136" s="4">
         <v>8.4</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G136" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="H46" s="1">
+      <c r="H136" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A47" s="7">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A137">
         <v>67.5</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B137" s="2">
         <v>6.2</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C137" s="3">
         <v>6.7</v>
       </c>
-      <c r="D47" s="10">
+      <c r="D137" s="4">
         <v>7.2</v>
       </c>
-      <c r="E47" s="4">
+      <c r="E137" s="5">
         <v>7.9</v>
       </c>
-      <c r="F47" s="5">
+      <c r="F137" s="4">
         <v>8.5</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G137" s="3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="H47" s="1">
+      <c r="H137" s="2">
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A48" s="7">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A138">
         <v>68</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B138" s="2">
         <v>6.3</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C138" s="3">
         <v>6.8</v>
       </c>
-      <c r="D48" s="10">
+      <c r="D138" s="4">
         <v>7.3</v>
       </c>
-      <c r="E48" s="4">
+      <c r="E138" s="5">
         <v>8</v>
       </c>
-      <c r="F48" s="5">
+      <c r="F138" s="4">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G138" s="3">
         <v>9.4</v>
       </c>
-      <c r="H48" s="1">
+      <c r="H138" s="2">
         <v>10.3</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A49" s="7">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A139">
         <v>68.5</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B139" s="2">
         <v>6.4</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C139" s="3">
         <v>6.9</v>
       </c>
-      <c r="D49" s="10">
+      <c r="D139" s="4">
         <v>7.5</v>
       </c>
-      <c r="E49" s="4">
+      <c r="E139" s="5">
         <v>8.1</v>
       </c>
-      <c r="F49" s="5">
+      <c r="F139" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G139" s="3">
         <v>9.6</v>
       </c>
-      <c r="H49" s="1">
+      <c r="H139" s="2">
         <v>10.5</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A50" s="7">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A140">
         <v>69</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B140" s="2">
         <v>6.5</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C140" s="3">
         <v>7</v>
       </c>
-      <c r="D50" s="10">
+      <c r="D140" s="4">
         <v>7.6</v>
       </c>
-      <c r="E50" s="4">
+      <c r="E140" s="5">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F50" s="5">
+      <c r="F140" s="4">
         <v>8.9</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G140" s="3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="H50" s="1">
+      <c r="H140" s="2">
         <v>10.6</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A51" s="7">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A141">
         <v>69.5</v>
       </c>
-      <c r="B51" s="1">
+      <c r="B141" s="2">
         <v>6.6</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C141" s="3">
         <v>7.1</v>
       </c>
-      <c r="D51" s="10">
+      <c r="D141" s="4">
         <v>7.7</v>
       </c>
-      <c r="E51" s="4">
+      <c r="E141" s="5">
         <v>8.3000000000000007</v>
       </c>
-      <c r="F51" s="5">
+      <c r="F141" s="4">
         <v>9</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G141" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="H51" s="1">
+      <c r="H141" s="2">
         <v>10.8</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A52" s="7">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A142">
         <v>70</v>
       </c>
-      <c r="B52" s="1">
+      <c r="B142" s="2">
         <v>6.6</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C142" s="3">
         <v>7.2</v>
       </c>
-      <c r="D52" s="10">
+      <c r="D142" s="4">
         <v>7.8</v>
       </c>
-      <c r="E52" s="4">
+      <c r="E142" s="5">
         <v>8.4</v>
       </c>
-      <c r="F52" s="5">
+      <c r="F142" s="4">
         <v>9.1999999999999993</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G142" s="3">
         <v>10</v>
       </c>
-      <c r="H52" s="1">
+      <c r="H142" s="2">
         <v>10.9</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A53" s="7">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A143">
         <v>70.5</v>
       </c>
-      <c r="B53" s="1">
+      <c r="B143" s="2">
         <v>6.7</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C143" s="3">
         <v>7.3</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D143" s="4">
         <v>7.9</v>
       </c>
-      <c r="E53" s="4">
+      <c r="E143" s="5">
         <v>8.5</v>
       </c>
-      <c r="F53" s="5">
+      <c r="F143" s="4">
         <v>9.3000000000000007</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G143" s="3">
         <v>10.1</v>
       </c>
-      <c r="H53" s="1">
+      <c r="H143" s="2">
         <v>11.1</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A54" s="7">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A144">
         <v>71</v>
       </c>
-      <c r="B54" s="1">
+      <c r="B144" s="2">
         <v>6.8</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C144" s="3">
         <v>7.4</v>
       </c>
-      <c r="D54" s="10">
+      <c r="D144" s="4">
         <v>8</v>
       </c>
-      <c r="E54" s="4">
+      <c r="E144" s="5">
         <v>8.6</v>
       </c>
-      <c r="F54" s="5">
+      <c r="F144" s="4">
         <v>9.4</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G144" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="H54" s="1">
+      <c r="H144" s="2">
         <v>11.2</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A55" s="7">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A145">
         <v>71.5</v>
       </c>
-      <c r="B55" s="1">
+      <c r="B145" s="2">
         <v>6.9</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C145" s="3">
         <v>7.5</v>
       </c>
-      <c r="D55" s="10">
+      <c r="D145" s="4">
         <v>8.1</v>
       </c>
-      <c r="E55" s="4">
+      <c r="E145" s="5">
         <v>8.8000000000000007</v>
       </c>
-      <c r="F55" s="5">
+      <c r="F145" s="4">
         <v>9.5</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G145" s="3">
         <v>10.4</v>
       </c>
-      <c r="H55" s="1">
+      <c r="H145" s="2">
         <v>11.3</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A56" s="7">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A146">
         <v>72</v>
       </c>
-      <c r="B56" s="1">
+      <c r="B146" s="2">
         <v>7</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C146" s="3">
         <v>7.6</v>
       </c>
-      <c r="D56" s="10">
+      <c r="D146" s="4">
         <v>8.1999999999999993</v>
       </c>
-      <c r="E56" s="4">
+      <c r="E146" s="5">
         <v>8.9</v>
       </c>
-      <c r="F56" s="5">
+      <c r="F146" s="4">
         <v>9.6</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G146" s="3">
         <v>10.5</v>
       </c>
-      <c r="H56" s="1">
+      <c r="H146" s="2">
         <v>11.5</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A57" s="7">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A147">
         <v>72.5</v>
       </c>
-      <c r="B57" s="1">
+      <c r="B147" s="2">
         <v>7.1</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C147" s="3">
         <v>7.6</v>
       </c>
-      <c r="D57" s="10">
+      <c r="D147" s="4">
         <v>8.3000000000000007</v>
       </c>
-      <c r="E57" s="4">
+      <c r="E147" s="5">
         <v>9</v>
       </c>
-      <c r="F57" s="5">
+      <c r="F147" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G147" s="3">
         <v>10.6</v>
       </c>
-      <c r="H57" s="1">
+      <c r="H147" s="2">
         <v>11.6</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A58" s="7">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A148">
         <v>73</v>
       </c>
-      <c r="B58" s="1">
+      <c r="B148" s="2">
         <v>7.2</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C148" s="3">
         <v>7.7</v>
       </c>
-      <c r="D58" s="10">
+      <c r="D148" s="4">
         <v>8.4</v>
       </c>
-      <c r="E58" s="4">
+      <c r="E148" s="5">
         <v>9.1</v>
       </c>
-      <c r="F58" s="5">
+      <c r="F148" s="4">
         <v>9.9</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G148" s="3">
         <v>10.8</v>
       </c>
-      <c r="H58" s="1">
+      <c r="H148" s="2">
         <v>11.8</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A59" s="7">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A149">
         <v>73.5</v>
       </c>
-      <c r="B59" s="1">
+      <c r="B149" s="2">
         <v>7.2</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C149" s="3">
         <v>7.8</v>
       </c>
-      <c r="D59" s="10">
+      <c r="D149" s="4">
         <v>8.5</v>
       </c>
-      <c r="E59" s="4">
+      <c r="E149" s="5">
         <v>9.1999999999999993</v>
       </c>
-      <c r="F59" s="5">
+      <c r="F149" s="4">
         <v>10</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G149" s="3">
         <v>10.9</v>
       </c>
-      <c r="H59" s="1">
+      <c r="H149" s="2">
         <v>11.9</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A60" s="7">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A150">
         <v>74</v>
       </c>
-      <c r="B60" s="1">
+      <c r="B150" s="2">
         <v>7.3</v>
       </c>
-      <c r="C60" s="11">
+      <c r="C150" s="3">
         <v>7.9</v>
       </c>
-      <c r="D60" s="10">
+      <c r="D150" s="4">
         <v>8.6</v>
       </c>
-      <c r="E60" s="4">
+      <c r="E150" s="5">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F60" s="5">
+      <c r="F150" s="4">
         <v>10.1</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G150" s="3">
         <v>11</v>
       </c>
-      <c r="H60" s="1">
+      <c r="H150" s="2">
         <v>12.1</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A61" s="7">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A151">
         <v>74.5</v>
       </c>
-      <c r="B61" s="1">
+      <c r="B151" s="2">
         <v>7.4</v>
       </c>
-      <c r="C61" s="11">
+      <c r="C151" s="3">
         <v>8</v>
       </c>
-      <c r="D61" s="10">
+      <c r="D151" s="4">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E61" s="4">
+      <c r="E151" s="5">
         <v>9.4</v>
       </c>
-      <c r="F61" s="5">
+      <c r="F151" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G151" s="3">
         <v>11.2</v>
       </c>
-      <c r="H61" s="1">
+      <c r="H151" s="2">
         <v>12.2</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A62" s="7">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A152">
         <v>75</v>
       </c>
-      <c r="B62" s="1">
+      <c r="B152" s="2">
         <v>7.5</v>
       </c>
-      <c r="C62" s="11">
+      <c r="C152" s="3">
         <v>8.1</v>
       </c>
-      <c r="D62" s="10">
+      <c r="D152" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E62" s="4">
+      <c r="E152" s="5">
         <v>9.5</v>
       </c>
-      <c r="F62" s="5">
+      <c r="F152" s="4">
         <v>10.3</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G152" s="3">
         <v>11.3</v>
       </c>
-      <c r="H62" s="1">
+      <c r="H152" s="2">
         <v>12.3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A63" s="7">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A153">
         <v>75.5</v>
       </c>
-      <c r="B63" s="1">
+      <c r="B153" s="2">
         <v>7.6</v>
       </c>
-      <c r="C63" s="11">
+      <c r="C153" s="3">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D63" s="10">
+      <c r="D153" s="4">
         <v>8.8000000000000007</v>
       </c>
-      <c r="E63" s="4">
+      <c r="E153" s="5">
         <v>9.6</v>
       </c>
-      <c r="F63" s="5">
+      <c r="F153" s="4">
         <v>10.4</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G153" s="3">
         <v>11.4</v>
       </c>
-      <c r="H63" s="1">
+      <c r="H153" s="2">
         <v>12.5</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A64" s="7">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A154">
         <v>76</v>
       </c>
-      <c r="B64" s="1">
+      <c r="B154" s="2">
         <v>7.6</v>
       </c>
-      <c r="C64" s="11">
+      <c r="C154" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D64" s="10">
+      <c r="D154" s="4">
         <v>8.9</v>
       </c>
-      <c r="E64" s="4">
+      <c r="E154" s="5">
         <v>9.6999999999999993</v>
       </c>
-      <c r="F64" s="5">
+      <c r="F154" s="4">
         <v>10.6</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G154" s="3">
         <v>11.5</v>
       </c>
-      <c r="H64" s="1">
+      <c r="H154" s="2">
         <v>12.6</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A65" s="7">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A155">
         <v>76.5</v>
       </c>
-      <c r="B65" s="1">
+      <c r="B155" s="2">
         <v>7.7</v>
       </c>
-      <c r="C65" s="11">
+      <c r="C155" s="3">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D65" s="10">
+      <c r="D155" s="4">
         <v>9</v>
       </c>
-      <c r="E65" s="4">
+      <c r="E155" s="5">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F65" s="5">
+      <c r="F155" s="4">
         <v>10.7</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G155" s="3">
         <v>11.6</v>
       </c>
-      <c r="H65" s="1">
+      <c r="H155" s="2">
         <v>12.7</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A66" s="7">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A156">
         <v>77</v>
       </c>
-      <c r="B66" s="1">
+      <c r="B156" s="2">
         <v>7.8</v>
       </c>
-      <c r="C66" s="11">
+      <c r="C156" s="3">
         <v>8.4</v>
       </c>
-      <c r="D66" s="10">
+      <c r="D156" s="4">
         <v>9.1</v>
       </c>
-      <c r="E66" s="4">
+      <c r="E156" s="5">
         <v>9.9</v>
       </c>
-      <c r="F66" s="5">
+      <c r="F156" s="4">
         <v>10.8</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G156" s="3">
         <v>11.7</v>
       </c>
-      <c r="H66" s="1">
+      <c r="H156" s="2">
         <v>12.8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A67" s="7">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A157">
         <v>77.5</v>
       </c>
-      <c r="B67" s="1">
+      <c r="B157" s="2">
         <v>7.9</v>
       </c>
-      <c r="C67" s="11">
+      <c r="C157" s="3">
         <v>8.5</v>
       </c>
-      <c r="D67" s="10">
+      <c r="D157" s="4">
         <v>9.1999999999999993</v>
       </c>
-      <c r="E67" s="4">
+      <c r="E157" s="5">
         <v>10</v>
       </c>
-      <c r="F67" s="5">
+      <c r="F157" s="4">
         <v>10.9</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G157" s="3">
         <v>11.9</v>
       </c>
-      <c r="H67" s="1">
+      <c r="H157" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A68" s="7">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A158">
         <v>78</v>
       </c>
-      <c r="B68" s="1">
+      <c r="B158" s="2">
         <v>7.9</v>
       </c>
-      <c r="C68" s="11">
+      <c r="C158" s="3">
         <v>8.6</v>
       </c>
-      <c r="D68" s="10">
+      <c r="D158" s="4">
         <v>9.3000000000000007</v>
       </c>
-      <c r="E68" s="4">
+      <c r="E158" s="5">
         <v>10.1</v>
       </c>
-      <c r="F68" s="5">
+      <c r="F158" s="4">
         <v>11</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G158" s="3">
         <v>12</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H158" s="2">
         <v>13.1</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A69" s="7">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A159">
         <v>78.5</v>
       </c>
-      <c r="B69" s="1">
+      <c r="B159" s="2">
         <v>8</v>
       </c>
-      <c r="C69" s="11">
+      <c r="C159" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D69" s="10">
+      <c r="D159" s="4">
         <v>9.4</v>
       </c>
-      <c r="E69" s="4">
+      <c r="E159" s="5">
         <v>10.199999999999999</v>
       </c>
-      <c r="F69" s="5">
+      <c r="F159" s="4">
         <v>11.1</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G159" s="3">
         <v>12.1</v>
       </c>
-      <c r="H69" s="1">
+      <c r="H159" s="2">
         <v>13.2</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" s="7">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A160">
         <v>79</v>
       </c>
-      <c r="B70" s="1">
+      <c r="B160" s="2">
         <v>8.1</v>
       </c>
-      <c r="C70" s="11">
+      <c r="C160" s="3">
         <v>8.6999999999999993</v>
       </c>
-      <c r="D70" s="10">
+      <c r="D160" s="4">
         <v>9.5</v>
       </c>
-      <c r="E70" s="4">
+      <c r="E160" s="5">
         <v>10.3</v>
       </c>
-      <c r="F70" s="5">
+      <c r="F160" s="4">
         <v>11.2</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G160" s="3">
         <v>12.2</v>
       </c>
-      <c r="H70" s="1">
+      <c r="H160" s="2">
         <v>13.3</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A71" s="7">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A161">
         <v>79.5</v>
       </c>
-      <c r="B71" s="1">
+      <c r="B161" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C71" s="11">
+      <c r="C161" s="3">
         <v>8.8000000000000007</v>
       </c>
-      <c r="D71" s="10">
+      <c r="D161" s="4">
         <v>9.5</v>
       </c>
-      <c r="E71" s="4">
+      <c r="E161" s="5">
         <v>10.4</v>
       </c>
-      <c r="F71" s="5">
+      <c r="F161" s="4">
         <v>11.3</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G161" s="3">
         <v>12.3</v>
       </c>
-      <c r="H71" s="1">
+      <c r="H161" s="2">
         <v>13.4</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A72" s="7">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A162">
         <v>80</v>
       </c>
-      <c r="B72" s="1">
+      <c r="B162" s="2">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C72" s="11">
+      <c r="C162" s="3">
         <v>8.9</v>
       </c>
-      <c r="D72" s="10">
+      <c r="D162" s="4">
         <v>9.6</v>
       </c>
-      <c r="E72" s="4">
+      <c r="E162" s="5">
         <v>10.4</v>
       </c>
-      <c r="F72" s="5">
+      <c r="F162" s="4">
         <v>11.4</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G162" s="3">
         <v>12.4</v>
       </c>
-      <c r="H72" s="1">
+      <c r="H162" s="2">
         <v>13.6</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A73" s="7">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A163">
         <v>80.5</v>
       </c>
-      <c r="B73" s="1">
+      <c r="B163" s="2">
         <v>8.3000000000000007</v>
       </c>
-      <c r="C73" s="11">
+      <c r="C163" s="3">
         <v>9</v>
       </c>
-      <c r="D73" s="10">
+      <c r="D163" s="4">
         <v>9.6999999999999993</v>
       </c>
-      <c r="E73" s="4">
+      <c r="E163" s="5">
         <v>10.5</v>
       </c>
-      <c r="F73" s="5">
+      <c r="F163" s="4">
         <v>11.5</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G163" s="3">
         <v>12.5</v>
       </c>
-      <c r="H73" s="1">
+      <c r="H163" s="2">
         <v>13.7</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A74" s="7">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A164">
         <v>81</v>
       </c>
-      <c r="B74" s="1">
+      <c r="B164" s="2">
         <v>8.4</v>
       </c>
-      <c r="C74" s="11">
+      <c r="C164" s="3">
         <v>9.1</v>
       </c>
-      <c r="D74" s="10">
+      <c r="D164" s="4">
         <v>9.8000000000000007</v>
       </c>
-      <c r="E74" s="4">
+      <c r="E164" s="5">
         <v>10.6</v>
       </c>
-      <c r="F74" s="5">
+      <c r="F164" s="4">
         <v>11.6</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G164" s="3">
         <v>12.6</v>
       </c>
-      <c r="H74" s="1">
+      <c r="H164" s="2">
         <v>13.8</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A75" s="7">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A165">
         <v>81.5</v>
       </c>
-      <c r="B75" s="1">
+      <c r="B165" s="2">
         <v>8.5</v>
       </c>
-      <c r="C75" s="11">
+      <c r="C165" s="3">
         <v>9.1</v>
       </c>
-      <c r="D75" s="10">
+      <c r="D165" s="4">
         <v>9.9</v>
       </c>
-      <c r="E75" s="4">
+      <c r="E165" s="5">
         <v>10.7</v>
       </c>
-      <c r="F75" s="5">
+      <c r="F165" s="4">
         <v>11.7</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G165" s="3">
         <v>12.7</v>
       </c>
-      <c r="H75" s="1">
+      <c r="H165" s="2">
         <v>13.9</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A76" s="7">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A166">
         <v>82</v>
       </c>
-      <c r="B76" s="1">
+      <c r="B166" s="2">
         <v>8.5</v>
       </c>
-      <c r="C76" s="11">
+      <c r="C166" s="3">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D76" s="10">
+      <c r="D166" s="4">
         <v>10</v>
       </c>
-      <c r="E76" s="4">
+      <c r="E166" s="5">
         <v>10.8</v>
       </c>
-      <c r="F76" s="5">
+      <c r="F166" s="4">
         <v>11.8</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G166" s="3">
         <v>12.8</v>
       </c>
-      <c r="H76" s="1">
+      <c r="H166" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A77" s="7">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A167">
         <v>82.5</v>
       </c>
-      <c r="B77" s="1">
+      <c r="B167" s="2">
         <v>8.6</v>
       </c>
-      <c r="C77" s="11">
+      <c r="C167" s="3">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D77" s="10">
+      <c r="D167" s="4">
         <v>10.1</v>
       </c>
-      <c r="E77" s="4">
+      <c r="E167" s="5">
         <v>10.9</v>
       </c>
-      <c r="F77" s="5">
+      <c r="F167" s="4">
         <v>11.9</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G167" s="3">
         <v>13</v>
       </c>
-      <c r="H77" s="1">
+      <c r="H167" s="2">
         <v>14.2</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A78" s="7">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A168">
         <v>83</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B168" s="2">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C78" s="11">
+      <c r="C168" s="3">
         <v>9.4</v>
       </c>
-      <c r="D78" s="10">
+      <c r="D168" s="4">
         <v>10.199999999999999</v>
       </c>
-      <c r="E78" s="4">
+      <c r="E168" s="5">
         <v>11</v>
       </c>
-      <c r="F78" s="5">
+      <c r="F168" s="4">
         <v>12</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G168" s="3">
         <v>13.1</v>
       </c>
-      <c r="H78" s="1">
+      <c r="H168" s="2">
         <v>14.3</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A79" s="7">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A169">
         <v>83.5</v>
       </c>
-      <c r="B79" s="1">
+      <c r="B169" s="2">
         <v>8.8000000000000007</v>
       </c>
-      <c r="C79" s="11">
+      <c r="C169" s="3">
         <v>9.5</v>
       </c>
-      <c r="D79" s="10">
+      <c r="D169" s="4">
         <v>10.3</v>
       </c>
-      <c r="E79" s="4">
+      <c r="E169" s="5">
         <v>11.2</v>
       </c>
-      <c r="F79" s="5">
+      <c r="F169" s="4">
         <v>12.1</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G169" s="3">
         <v>13.2</v>
       </c>
-      <c r="H79" s="1">
+      <c r="H169" s="2">
         <v>14.4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A80" s="7">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A170">
         <v>84</v>
       </c>
-      <c r="B80" s="1">
+      <c r="B170" s="2">
         <v>8.9</v>
       </c>
-      <c r="C80" s="11">
+      <c r="C170" s="3">
         <v>9.6</v>
       </c>
-      <c r="D80" s="10">
+      <c r="D170" s="4">
         <v>10.4</v>
       </c>
-      <c r="E80" s="4">
+      <c r="E170" s="5">
         <v>11.3</v>
       </c>
-      <c r="F80" s="5">
+      <c r="F170" s="4">
         <v>12.2</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G170" s="3">
         <v>13.3</v>
       </c>
-      <c r="H80" s="1">
+      <c r="H170" s="2">
         <v>14.6</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A81" s="7">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A171">
         <v>84.5</v>
       </c>
-      <c r="B81" s="1">
+      <c r="B171" s="2">
         <v>9</v>
       </c>
-      <c r="C81" s="11">
+      <c r="C171" s="3">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D81" s="10">
+      <c r="D171" s="4">
         <v>10.5</v>
       </c>
-      <c r="E81" s="4">
+      <c r="E171" s="5">
         <v>11.4</v>
       </c>
-      <c r="F81" s="5">
+      <c r="F171" s="4">
         <v>12.4</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G171" s="3">
         <v>13.5</v>
       </c>
-      <c r="H81" s="1">
+      <c r="H171" s="2">
         <v>14.7</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A82" s="7">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A172">
         <v>85</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B172" s="2">
         <v>9.1</v>
       </c>
-      <c r="C82" s="11">
+      <c r="C172" s="3">
         <v>9.8000000000000007</v>
       </c>
-      <c r="D82" s="10">
+      <c r="D172" s="4">
         <v>10.6</v>
       </c>
-      <c r="E82" s="4">
+      <c r="E172" s="5">
         <v>11.5</v>
       </c>
-      <c r="F82" s="5">
+      <c r="F172" s="4">
         <v>12.5</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G172" s="3">
         <v>13.6</v>
       </c>
-      <c r="H82" s="1">
+      <c r="H172" s="2">
         <v>14.9</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A83" s="7">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A173">
         <v>85.5</v>
       </c>
-      <c r="B83" s="1">
+      <c r="B173" s="2">
         <v>9.1999999999999993</v>
       </c>
-      <c r="C83" s="11">
+      <c r="C173" s="3">
         <v>9.9</v>
       </c>
-      <c r="D83" s="10">
+      <c r="D173" s="4">
         <v>10.7</v>
       </c>
-      <c r="E83" s="4">
+      <c r="E173" s="5">
         <v>11.6</v>
       </c>
-      <c r="F83" s="5">
+      <c r="F173" s="4">
         <v>12.6</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G173" s="3">
         <v>13.7</v>
       </c>
-      <c r="H83" s="1">
+      <c r="H173" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A84" s="7">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A174">
         <v>86</v>
       </c>
-      <c r="B84" s="1">
+      <c r="B174" s="2">
         <v>9.3000000000000007</v>
       </c>
-      <c r="C84" s="11">
+      <c r="C174" s="3">
         <v>10</v>
       </c>
-      <c r="D84" s="10">
+      <c r="D174" s="4">
         <v>10.8</v>
       </c>
-      <c r="E84" s="4">
+      <c r="E174" s="5">
         <v>11.7</v>
       </c>
-      <c r="F84" s="5">
+      <c r="F174" s="4">
         <v>12.8</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G174" s="3">
         <v>13.9</v>
       </c>
-      <c r="H84" s="1">
+      <c r="H174" s="2">
         <v>15.2</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A85" s="7">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A175">
         <v>86.5</v>
       </c>
-      <c r="B85" s="1">
+      <c r="B175" s="2">
         <v>9.4</v>
       </c>
-      <c r="C85" s="11">
+      <c r="C175" s="3">
         <v>10.1</v>
       </c>
-      <c r="D85" s="10">
+      <c r="D175" s="4">
         <v>11</v>
       </c>
-      <c r="E85" s="4">
+      <c r="E175" s="5">
         <v>11.9</v>
       </c>
-      <c r="F85" s="5">
+      <c r="F175" s="4">
         <v>12.9</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G175" s="3">
         <v>14</v>
       </c>
-      <c r="H85" s="1">
+      <c r="H175" s="2">
         <v>15.3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A86" s="7">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A176">
         <v>87</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B176" s="2">
         <v>9.5</v>
       </c>
-      <c r="C86" s="11">
+      <c r="C176" s="3">
         <v>10.199999999999999</v>
       </c>
-      <c r="D86" s="10">
+      <c r="D176" s="4">
         <v>11.1</v>
       </c>
-      <c r="E86" s="4">
+      <c r="E176" s="5">
         <v>12</v>
       </c>
-      <c r="F86" s="5">
+      <c r="F176" s="4">
         <v>13</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G176" s="3">
         <v>14.2</v>
       </c>
-      <c r="H86" s="1">
+      <c r="H176" s="2">
         <v>15.5</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A87" s="7">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A177">
         <v>87.5</v>
       </c>
-      <c r="B87" s="1">
+      <c r="B177" s="2">
         <v>9.6</v>
       </c>
-      <c r="C87" s="11">
+      <c r="C177" s="3">
         <v>10.4</v>
       </c>
-      <c r="D87" s="10">
+      <c r="D177" s="4">
         <v>11.2</v>
       </c>
-      <c r="E87" s="4">
+      <c r="E177" s="5">
         <v>12.1</v>
       </c>
-      <c r="F87" s="5">
+      <c r="F177" s="4">
         <v>13.2</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G177" s="3">
         <v>14.3</v>
       </c>
-      <c r="H87" s="1">
+      <c r="H177" s="2">
         <v>15.6</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A88" s="7">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A178">
         <v>88</v>
       </c>
-      <c r="B88" s="1">
+      <c r="B178" s="2">
         <v>9.6999999999999993</v>
       </c>
-      <c r="C88" s="11">
+      <c r="C178" s="3">
         <v>10.5</v>
       </c>
-      <c r="D88" s="10">
+      <c r="D178" s="4">
         <v>11.3</v>
       </c>
-      <c r="E88" s="4">
+      <c r="E178" s="5">
         <v>12.2</v>
       </c>
-      <c r="F88" s="5">
+      <c r="F178" s="4">
         <v>13.3</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G178" s="3">
         <v>14.5</v>
       </c>
-      <c r="H88" s="1">
+      <c r="H178" s="2">
         <v>15.8</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A89" s="7">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A179">
         <v>88.5</v>
       </c>
-      <c r="B89" s="1">
+      <c r="B179" s="2">
         <v>9.8000000000000007</v>
       </c>
-      <c r="C89" s="11">
+      <c r="C179" s="3">
         <v>10.6</v>
       </c>
-      <c r="D89" s="10">
+      <c r="D179" s="4">
         <v>11.4</v>
       </c>
-      <c r="E89" s="4">
+      <c r="E179" s="5">
         <v>12.4</v>
       </c>
-      <c r="F89" s="5">
+      <c r="F179" s="4">
         <v>13.4</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G179" s="3">
         <v>14.6</v>
       </c>
-      <c r="H89" s="1">
+      <c r="H179" s="2">
         <v>15.9</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A90" s="7">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A180">
         <v>89</v>
       </c>
-      <c r="B90" s="1">
+      <c r="B180" s="2">
         <v>9.9</v>
       </c>
-      <c r="C90" s="11">
+      <c r="C180" s="3">
         <v>10.7</v>
       </c>
-      <c r="D90" s="10">
+      <c r="D180" s="4">
         <v>11.5</v>
       </c>
-      <c r="E90" s="4">
+      <c r="E180" s="5">
         <v>12.5</v>
       </c>
-      <c r="F90" s="5">
+      <c r="F180" s="4">
         <v>13.5</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G180" s="3">
         <v>14.7</v>
       </c>
-      <c r="H90" s="1">
+      <c r="H180" s="2">
         <v>16.100000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A91" s="7">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A181">
         <v>89.5</v>
       </c>
-      <c r="B91" s="1">
+      <c r="B181" s="2">
         <v>10</v>
       </c>
-      <c r="C91" s="11">
+      <c r="C181" s="3">
         <v>10.8</v>
       </c>
-      <c r="D91" s="10">
+      <c r="D181" s="4">
         <v>11.6</v>
       </c>
-      <c r="E91" s="4">
+      <c r="E181" s="5">
         <v>12.6</v>
       </c>
-      <c r="F91" s="5">
+      <c r="F181" s="4">
         <v>13.7</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G181" s="3">
         <v>14.9</v>
       </c>
-      <c r="H91" s="1">
+      <c r="H181" s="2">
         <v>16.2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A92" s="7">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A182">
         <v>90</v>
       </c>
-      <c r="B92" s="1">
+      <c r="B182" s="2">
         <v>10.1</v>
       </c>
-      <c r="C92" s="11">
+      <c r="C182" s="3">
         <v>10.9</v>
       </c>
-      <c r="D92" s="10">
+      <c r="D182" s="4">
         <v>11.8</v>
       </c>
-      <c r="E92" s="4">
+      <c r="E182" s="5">
         <v>12.7</v>
       </c>
-      <c r="F92" s="5">
+      <c r="F182" s="4">
         <v>13.8</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G182" s="3">
         <v>15</v>
       </c>
-      <c r="H92" s="1">
+      <c r="H182" s="2">
         <v>16.399999999999999</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A93" s="7">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A183">
         <v>90.5</v>
       </c>
-      <c r="B93" s="1">
+      <c r="B183" s="2">
         <v>10.199999999999999</v>
       </c>
-      <c r="C93" s="11">
+      <c r="C183" s="3">
         <v>11</v>
       </c>
-      <c r="D93" s="10">
+      <c r="D183" s="4">
         <v>11.9</v>
       </c>
-      <c r="E93" s="4">
+      <c r="E183" s="5">
         <v>12.8</v>
       </c>
-      <c r="F93" s="5">
+      <c r="F183" s="4">
         <v>13.9</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G183" s="3">
         <v>15.1</v>
       </c>
-      <c r="H93" s="1">
+      <c r="H183" s="2">
         <v>16.5</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A94" s="7">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A184">
         <v>91</v>
       </c>
-      <c r="B94" s="1">
+      <c r="B184" s="2">
         <v>10.3</v>
       </c>
-      <c r="C94" s="11">
+      <c r="C184" s="3">
         <v>11.1</v>
       </c>
-      <c r="D94" s="10">
+      <c r="D184" s="4">
         <v>12</v>
       </c>
-      <c r="E94" s="4">
+      <c r="E184" s="5">
         <v>13</v>
       </c>
-      <c r="F94" s="5">
+      <c r="F184" s="4">
         <v>14.1</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G184" s="3">
         <v>15.3</v>
       </c>
-      <c r="H94" s="1">
+      <c r="H184" s="2">
         <v>16.7</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A95" s="7">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A185">
         <v>91.5</v>
       </c>
-      <c r="B95" s="1">
+      <c r="B185" s="2">
         <v>10.4</v>
       </c>
-      <c r="C95" s="11">
+      <c r="C185" s="3">
         <v>11.2</v>
       </c>
-      <c r="D95" s="10">
+      <c r="D185" s="4">
         <v>12.1</v>
       </c>
-      <c r="E95" s="4">
+      <c r="E185" s="5">
         <v>13.1</v>
       </c>
-      <c r="F95" s="5">
+      <c r="F185" s="4">
         <v>14.2</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G185" s="3">
         <v>15.4</v>
       </c>
-      <c r="H95" s="1">
+      <c r="H185" s="2">
         <v>16.8</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A96" s="7">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A186">
         <v>92</v>
       </c>
-      <c r="B96" s="1">
+      <c r="B186" s="2">
         <v>10.5</v>
       </c>
-      <c r="C96" s="11">
+      <c r="C186" s="3">
         <v>11.3</v>
       </c>
-      <c r="D96" s="10">
+      <c r="D186" s="4">
         <v>12.2</v>
       </c>
-      <c r="E96" s="4">
+      <c r="E186" s="5">
         <v>13.2</v>
       </c>
-      <c r="F96" s="5">
+      <c r="F186" s="4">
         <v>14.3</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G186" s="3">
         <v>15.6</v>
       </c>
-      <c r="H96" s="1">
+      <c r="H186" s="2">
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A97" s="7">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A187">
         <v>92.5</v>
       </c>
-      <c r="B97" s="1">
+      <c r="B187" s="2">
         <v>10.6</v>
       </c>
-      <c r="C97" s="11">
+      <c r="C187" s="3">
         <v>11.4</v>
       </c>
-      <c r="D97" s="10">
+      <c r="D187" s="4">
         <v>12.3</v>
       </c>
-      <c r="E97" s="4">
+      <c r="E187" s="5">
         <v>13.3</v>
       </c>
-      <c r="F97" s="5">
+      <c r="F187" s="4">
         <v>14.4</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G187" s="3">
         <v>15.7</v>
       </c>
-      <c r="H97" s="1">
+      <c r="H187" s="2">
         <v>17.100000000000001</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A98" s="7">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A188">
         <v>93</v>
       </c>
-      <c r="B98" s="1">
+      <c r="B188" s="2">
         <v>10.7</v>
       </c>
-      <c r="C98" s="11">
+      <c r="C188" s="3">
         <v>11.5</v>
       </c>
-      <c r="D98" s="10">
+      <c r="D188" s="4">
         <v>12.4</v>
       </c>
-      <c r="E98" s="4">
+      <c r="E188" s="5">
         <v>13.4</v>
       </c>
-      <c r="F98" s="5">
+      <c r="F188" s="4">
         <v>14.6</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G188" s="3">
         <v>15.8</v>
       </c>
-      <c r="H98" s="1">
+      <c r="H188" s="2">
         <v>17.3</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A99" s="7">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A189">
         <v>93.5</v>
       </c>
-      <c r="B99" s="1">
+      <c r="B189" s="2">
         <v>10.7</v>
       </c>
-      <c r="C99" s="11">
+      <c r="C189" s="3">
         <v>11.6</v>
       </c>
-      <c r="D99" s="10">
+      <c r="D189" s="4">
         <v>12.5</v>
       </c>
-      <c r="E99" s="4">
+      <c r="E189" s="5">
         <v>13.5</v>
       </c>
-      <c r="F99" s="5">
+      <c r="F189" s="4">
         <v>14.7</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G189" s="3">
         <v>16</v>
       </c>
-      <c r="H99" s="1">
+      <c r="H189" s="2">
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A100" s="7">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A190">
         <v>94</v>
       </c>
-      <c r="B100" s="1">
+      <c r="B190" s="2">
         <v>10.8</v>
       </c>
-      <c r="C100" s="11">
+      <c r="C190" s="3">
         <v>11.7</v>
       </c>
-      <c r="D100" s="10">
+      <c r="D190" s="4">
         <v>12.6</v>
       </c>
-      <c r="E100" s="4">
+      <c r="E190" s="5">
         <v>13.7</v>
       </c>
-      <c r="F100" s="5">
+      <c r="F190" s="4">
         <v>14.8</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G190" s="3">
         <v>16.100000000000001</v>
       </c>
-      <c r="H100" s="1">
+      <c r="H190" s="2">
         <v>17.600000000000001</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A101" s="7">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A191">
         <v>94.5</v>
       </c>
-      <c r="B101" s="1">
+      <c r="B191" s="2">
         <v>10.9</v>
       </c>
-      <c r="C101" s="11">
+      <c r="C191" s="3">
         <v>11.8</v>
       </c>
-      <c r="D101" s="10">
+      <c r="D191" s="4">
         <v>12.7</v>
       </c>
-      <c r="E101" s="4">
+      <c r="E191" s="5">
         <v>13.8</v>
       </c>
-      <c r="F101" s="5">
+      <c r="F191" s="4">
         <v>14.9</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G191" s="3">
         <v>16.3</v>
       </c>
-      <c r="H101" s="1">
+      <c r="H191" s="2">
         <v>17.7</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A102" s="7">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A192">
         <v>95</v>
       </c>
-      <c r="B102" s="1">
+      <c r="B192" s="2">
         <v>11</v>
       </c>
-      <c r="C102" s="11">
+      <c r="C192" s="3">
         <v>11.9</v>
       </c>
-      <c r="D102" s="10">
+      <c r="D192" s="4">
         <v>12.8</v>
       </c>
-      <c r="E102" s="4">
+      <c r="E192" s="5">
         <v>13.9</v>
       </c>
-      <c r="F102" s="5">
+      <c r="F192" s="4">
         <v>15.1</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G192" s="3">
         <v>16.399999999999999</v>
       </c>
-      <c r="H102" s="1">
+      <c r="H192" s="2">
         <v>17.899999999999999</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A103" s="7">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A193">
         <v>95.5</v>
       </c>
-      <c r="B103" s="1">
+      <c r="B193" s="2">
         <v>11.1</v>
       </c>
-      <c r="C103" s="11">
+      <c r="C193" s="3">
         <v>12</v>
       </c>
-      <c r="D103" s="10">
+      <c r="D193" s="4">
         <v>12.9</v>
       </c>
-      <c r="E103" s="4">
+      <c r="E193" s="5">
         <v>14</v>
       </c>
-      <c r="F103" s="5">
+      <c r="F193" s="4">
         <v>15.2</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G193" s="3">
         <v>16.5</v>
       </c>
-      <c r="H103" s="1">
+      <c r="H193" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A104" s="7">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A194">
         <v>96</v>
       </c>
-      <c r="B104" s="1">
+      <c r="B194" s="2">
         <v>11.2</v>
       </c>
-      <c r="C104" s="11">
+      <c r="C194" s="3">
         <v>12.1</v>
       </c>
-      <c r="D104" s="10">
+      <c r="D194" s="4">
         <v>13.1</v>
       </c>
-      <c r="E104" s="4">
+      <c r="E194" s="5">
         <v>14.1</v>
       </c>
-      <c r="F104" s="5">
+      <c r="F194" s="4">
         <v>15.3</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G194" s="3">
         <v>16.7</v>
       </c>
-      <c r="H104" s="1">
+      <c r="H194" s="2">
         <v>18.2</v>
       </c>
     </row>
-    <row r="105" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A105" s="7">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A195">
         <v>96.5</v>
       </c>
-      <c r="B105" s="1">
+      <c r="B195" s="2">
         <v>11.3</v>
       </c>
-      <c r="C105" s="11">
+      <c r="C195" s="3">
         <v>12.2</v>
       </c>
-      <c r="D105" s="10">
+      <c r="D195" s="4">
         <v>13.2</v>
       </c>
-      <c r="E105" s="4">
+      <c r="E195" s="5">
         <v>14.3</v>
       </c>
-      <c r="F105" s="5">
+      <c r="F195" s="4">
         <v>15.5</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G195" s="3">
         <v>16.8</v>
       </c>
-      <c r="H105" s="1">
+      <c r="H195" s="2">
         <v>18.399999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A106" s="7">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A196">
         <v>97</v>
       </c>
-      <c r="B106" s="1">
+      <c r="B196" s="2">
         <v>11.4</v>
       </c>
-      <c r="C106" s="11">
+      <c r="C196" s="3">
         <v>12.3</v>
       </c>
-      <c r="D106" s="10">
+      <c r="D196" s="4">
         <v>13.3</v>
       </c>
-      <c r="E106" s="4">
+      <c r="E196" s="5">
         <v>14.4</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F196" s="4">
         <v>15.6</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G196" s="3">
         <v>17</v>
       </c>
-      <c r="H106" s="1">
+      <c r="H196" s="2">
         <v>18.5</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A107" s="7">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A197">
         <v>97.5</v>
       </c>
-      <c r="B107" s="1">
+      <c r="B197" s="2">
         <v>11.5</v>
       </c>
-      <c r="C107" s="11">
+      <c r="C197" s="3">
         <v>12.4</v>
       </c>
-      <c r="D107" s="10">
+      <c r="D197" s="4">
         <v>13.4</v>
       </c>
-      <c r="E107" s="4">
+      <c r="E197" s="5">
         <v>14.5</v>
       </c>
-      <c r="F107" s="5">
+      <c r="F197" s="4">
         <v>15.7</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G197" s="3">
         <v>17.100000000000001</v>
       </c>
-      <c r="H107" s="1">
+      <c r="H197" s="2">
         <v>18.7</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A108" s="7">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A198">
         <v>98</v>
       </c>
-      <c r="B108" s="1">
+      <c r="B198" s="2">
         <v>11.6</v>
       </c>
-      <c r="C108" s="11">
+      <c r="C198" s="3">
         <v>12.5</v>
       </c>
-      <c r="D108" s="10">
+      <c r="D198" s="4">
         <v>13.5</v>
       </c>
-      <c r="E108" s="4">
+      <c r="E198" s="5">
         <v>14.6</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F198" s="4">
         <v>15.9</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G198" s="3">
         <v>17.3</v>
       </c>
-      <c r="H108" s="1">
+      <c r="H198" s="2">
         <v>18.899999999999999</v>
       </c>
     </row>
-    <row r="109" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A109" s="7">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A199">
         <v>98.5</v>
       </c>
-      <c r="B109" s="1">
+      <c r="B199" s="2">
         <v>11.7</v>
       </c>
-      <c r="C109" s="11">
+      <c r="C199" s="3">
         <v>12.6</v>
       </c>
-      <c r="D109" s="10">
+      <c r="D199" s="4">
         <v>13.6</v>
       </c>
-      <c r="E109" s="4">
+      <c r="E199" s="5">
         <v>14.8</v>
       </c>
-      <c r="F109" s="5">
+      <c r="F199" s="4">
         <v>16</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G199" s="3">
         <v>17.5</v>
       </c>
-      <c r="H109" s="1">
+      <c r="H199" s="2">
         <v>19.100000000000001</v>
       </c>
     </row>
-    <row r="110" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A110" s="7">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A200">
         <v>99</v>
       </c>
-      <c r="B110" s="1">
+      <c r="B200" s="2">
         <v>11.8</v>
       </c>
-      <c r="C110" s="11">
+      <c r="C200" s="3">
         <v>12.7</v>
       </c>
-      <c r="D110" s="10">
+      <c r="D200" s="4">
         <v>13.7</v>
       </c>
-      <c r="E110" s="4">
+      <c r="E200" s="5">
         <v>14.9</v>
       </c>
-      <c r="F110" s="5">
+      <c r="F200" s="4">
         <v>16.2</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G200" s="3">
         <v>17.600000000000001</v>
       </c>
-      <c r="H110" s="1">
+      <c r="H200" s="2">
         <v>19.2</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A111" s="7">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A201">
         <v>99.5</v>
       </c>
-      <c r="B111" s="1">
+      <c r="B201" s="2">
         <v>11.9</v>
       </c>
-      <c r="C111" s="11">
+      <c r="C201" s="3">
         <v>12.8</v>
       </c>
-      <c r="D111" s="10">
+      <c r="D201" s="4">
         <v>13.9</v>
       </c>
-      <c r="E111" s="4">
+      <c r="E201" s="5">
         <v>15</v>
       </c>
-      <c r="F111" s="5">
+      <c r="F201" s="4">
         <v>16.3</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G201" s="3">
         <v>17.8</v>
       </c>
-      <c r="H111" s="1">
+      <c r="H201" s="2">
         <v>19.399999999999999</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A112" s="7">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A202">
         <v>100</v>
       </c>
-      <c r="B112" s="1">
+      <c r="B202" s="2">
         <v>12</v>
       </c>
-      <c r="C112" s="11">
+      <c r="C202" s="3">
         <v>12.9</v>
       </c>
-      <c r="D112" s="10">
+      <c r="D202" s="4">
         <v>14</v>
       </c>
-      <c r="E112" s="4">
+      <c r="E202" s="5">
         <v>15.2</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F202" s="4">
         <v>16.5</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G202" s="3">
         <v>18</v>
       </c>
-      <c r="H112" s="1">
+      <c r="H202" s="2">
         <v>19.600000000000001</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A113" s="7">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A203">
         <v>100.5</v>
       </c>
-      <c r="B113" s="1">
+      <c r="B203" s="2">
         <v>12.1</v>
       </c>
-      <c r="C113" s="11">
+      <c r="C203" s="3">
         <v>13</v>
       </c>
-      <c r="D113" s="10">
+      <c r="D203" s="4">
         <v>14.1</v>
       </c>
-      <c r="E113" s="4">
+      <c r="E203" s="5">
         <v>15.3</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F203" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G203" s="3">
         <v>18.100000000000001</v>
       </c>
-      <c r="H113" s="1">
+      <c r="H203" s="2">
         <v>19.8</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A114" s="7">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A204">
         <v>101</v>
       </c>
-      <c r="B114" s="1">
+      <c r="B204" s="2">
         <v>12.2</v>
       </c>
-      <c r="C114" s="11">
+      <c r="C204" s="3">
         <v>13.2</v>
       </c>
-      <c r="D114" s="10">
+      <c r="D204" s="4">
         <v>14.2</v>
       </c>
-      <c r="E114" s="4">
+      <c r="E204" s="5">
         <v>15.4</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F204" s="4">
         <v>16.8</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G204" s="3">
         <v>18.3</v>
       </c>
-      <c r="H114" s="1">
+      <c r="H204" s="2">
         <v>20</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A115" s="7">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A205">
         <v>101.5</v>
       </c>
-      <c r="B115" s="1">
+      <c r="B205" s="2">
         <v>12.3</v>
       </c>
-      <c r="C115" s="11">
+      <c r="C205" s="3">
         <v>13.3</v>
       </c>
-      <c r="D115" s="10">
+      <c r="D205" s="4">
         <v>14.4</v>
       </c>
-      <c r="E115" s="4">
+      <c r="E205" s="5">
         <v>15.6</v>
       </c>
-      <c r="F115" s="5">
+      <c r="F205" s="4">
         <v>16.899999999999999</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G205" s="3">
         <v>18.5</v>
       </c>
-      <c r="H115" s="1">
+      <c r="H205" s="2">
         <v>20.2</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A116" s="7">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A206">
         <v>102</v>
       </c>
-      <c r="B116" s="1">
+      <c r="B206" s="2">
         <v>12.4</v>
       </c>
-      <c r="C116" s="11">
+      <c r="C206" s="3">
         <v>13.4</v>
       </c>
-      <c r="D116" s="10">
+      <c r="D206" s="4">
         <v>14.5</v>
       </c>
-      <c r="E116" s="4">
+      <c r="E206" s="5">
         <v>15.7</v>
       </c>
-      <c r="F116" s="5">
+      <c r="F206" s="4">
         <v>17.100000000000001</v>
       </c>
-      <c r="G116" s="2">
+      <c r="G206" s="3">
         <v>18.7</v>
       </c>
-      <c r="H116" s="1">
+      <c r="H206" s="2">
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A117" s="7">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A207">
         <v>102.5</v>
       </c>
-      <c r="B117" s="1">
+      <c r="B207" s="2">
         <v>12.5</v>
       </c>
-      <c r="C117" s="11">
+      <c r="C207" s="3">
         <v>13.5</v>
       </c>
-      <c r="D117" s="10">
+      <c r="D207" s="4">
         <v>14.6</v>
       </c>
-      <c r="E117" s="4">
+      <c r="E207" s="5">
         <v>15.9</v>
       </c>
-      <c r="F117" s="5">
+      <c r="F207" s="4">
         <v>17.3</v>
       </c>
-      <c r="G117" s="2">
+      <c r="G207" s="3">
         <v>18.8</v>
       </c>
-      <c r="H117" s="1">
+      <c r="H207" s="2">
         <v>20.6</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A118" s="7">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A208">
         <v>103</v>
       </c>
-      <c r="B118" s="1">
+      <c r="B208" s="2">
         <v>12.6</v>
       </c>
-      <c r="C118" s="11">
+      <c r="C208" s="3">
         <v>13.6</v>
       </c>
-      <c r="D118" s="10">
+      <c r="D208" s="4">
         <v>14.8</v>
       </c>
-      <c r="E118" s="4">
+      <c r="E208" s="5">
         <v>16</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F208" s="4">
         <v>17.399999999999999</v>
       </c>
-      <c r="G118" s="2">
+      <c r="G208" s="3">
         <v>19</v>
       </c>
-      <c r="H118" s="1">
+      <c r="H208" s="2">
         <v>20.8</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A119" s="7">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A209">
         <v>103.5</v>
       </c>
-      <c r="B119" s="1">
+      <c r="B209" s="2">
         <v>12.7</v>
       </c>
-      <c r="C119" s="11">
+      <c r="C209" s="3">
         <v>13.7</v>
       </c>
-      <c r="D119" s="10">
+      <c r="D209" s="4">
         <v>14.9</v>
       </c>
-      <c r="E119" s="4">
+      <c r="E209" s="5">
         <v>16.2</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F209" s="4">
         <v>17.600000000000001</v>
       </c>
-      <c r="G119" s="2">
+      <c r="G209" s="3">
         <v>19.2</v>
       </c>
-      <c r="H119" s="1">
+      <c r="H209" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A120" s="7">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A210">
         <v>104</v>
       </c>
-      <c r="B120" s="1">
+      <c r="B210" s="2">
         <v>12.8</v>
       </c>
-      <c r="C120" s="11">
+      <c r="C210" s="3">
         <v>13.9</v>
       </c>
-      <c r="D120" s="10">
+      <c r="D210" s="4">
         <v>15</v>
       </c>
-      <c r="E120" s="4">
+      <c r="E210" s="5">
         <v>16.3</v>
       </c>
-      <c r="F120" s="5">
+      <c r="F210" s="4">
         <v>17.8</v>
       </c>
-      <c r="G120" s="2">
+      <c r="G210" s="3">
         <v>19.399999999999999</v>
       </c>
-      <c r="H120" s="1">
+      <c r="H210" s="2">
         <v>21.2</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A121" s="7">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A211">
         <v>104.5</v>
       </c>
-      <c r="B121" s="1">
+      <c r="B211" s="2">
         <v>12.9</v>
       </c>
-      <c r="C121" s="2">
+      <c r="C211" s="3">
         <v>14</v>
       </c>
-      <c r="D121" s="3">
+      <c r="D211" s="4">
         <v>15.2</v>
       </c>
-      <c r="E121" s="4">
+      <c r="E211" s="5">
         <v>16.5</v>
       </c>
-      <c r="F121" s="5">
+      <c r="F211" s="4">
         <v>17.899999999999999</v>
       </c>
-      <c r="G121" s="2">
+      <c r="G211" s="3">
         <v>19.600000000000001</v>
       </c>
-      <c r="H121" s="1">
+      <c r="H211" s="2">
         <v>21.5</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A122" s="7">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A212">
         <v>105</v>
       </c>
-      <c r="B122" s="1">
+      <c r="B212" s="2">
         <v>13</v>
       </c>
-      <c r="C122" s="2">
+      <c r="C212" s="3">
         <v>14.1</v>
       </c>
-      <c r="D122" s="3">
+      <c r="D212" s="4">
         <v>15.3</v>
       </c>
-      <c r="E122" s="4">
+      <c r="E212" s="5">
         <v>16.600000000000001</v>
       </c>
-      <c r="F122" s="5">
+      <c r="F212" s="4">
         <v>18.100000000000001</v>
       </c>
-      <c r="G122" s="2">
+      <c r="G212" s="3">
         <v>19.8</v>
       </c>
-      <c r="H122" s="1">
+      <c r="H212" s="2">
         <v>21.7</v>
       </c>
     </row>
-    <row r="123" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A123" s="7">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A213">
         <v>105.5</v>
       </c>
-      <c r="B123" s="1">
+      <c r="B213" s="2">
         <v>13.2</v>
       </c>
-      <c r="C123" s="2">
+      <c r="C213" s="3">
         <v>14.2</v>
       </c>
-      <c r="D123" s="3">
+      <c r="D213" s="4">
         <v>15.4</v>
       </c>
-      <c r="E123" s="4">
+      <c r="E213" s="5">
         <v>16.8</v>
       </c>
-      <c r="F123" s="5">
+      <c r="F213" s="4">
         <v>18.3</v>
       </c>
-      <c r="G123" s="2">
+      <c r="G213" s="3">
         <v>20</v>
       </c>
-      <c r="H123" s="1">
+      <c r="H213" s="2">
         <v>21.9</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A124" s="7">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A214">
         <v>106</v>
       </c>
-      <c r="B124" s="1">
+      <c r="B214" s="2">
         <v>13.3</v>
       </c>
-      <c r="C124" s="2">
+      <c r="C214" s="3">
         <v>14.4</v>
       </c>
-      <c r="D124" s="3">
+      <c r="D214" s="4">
         <v>15.6</v>
       </c>
-      <c r="E124" s="4">
+      <c r="E214" s="5">
         <v>16.899999999999999</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F214" s="4">
         <v>18.5</v>
       </c>
-      <c r="G124" s="2">
+      <c r="G214" s="3">
         <v>20.2</v>
       </c>
-      <c r="H124" s="1">
+      <c r="H214" s="2">
         <v>22.1</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A125" s="7">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A215">
         <v>106.5</v>
       </c>
-      <c r="B125" s="1">
+      <c r="B215" s="2">
         <v>13.4</v>
       </c>
-      <c r="C125" s="2">
+      <c r="C215" s="3">
         <v>14.5</v>
       </c>
-      <c r="D125" s="3">
+      <c r="D215" s="4">
         <v>15.7</v>
       </c>
-      <c r="E125" s="4">
+      <c r="E215" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F215" s="4">
         <v>18.600000000000001</v>
       </c>
-      <c r="G125" s="2">
+      <c r="G215" s="3">
         <v>20.399999999999999</v>
       </c>
-      <c r="H125" s="1">
+      <c r="H215" s="2">
         <v>22.4</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A126" s="7">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A216">
         <v>107</v>
       </c>
-      <c r="B126" s="1">
+      <c r="B216" s="2">
         <v>13.5</v>
       </c>
-      <c r="C126" s="2">
+      <c r="C216" s="3">
         <v>14.6</v>
       </c>
-      <c r="D126" s="3">
+      <c r="D216" s="4">
         <v>15.9</v>
       </c>
-      <c r="E126" s="4">
+      <c r="E216" s="5">
         <v>17.3</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F216" s="4">
         <v>18.8</v>
       </c>
-      <c r="G126" s="2">
+      <c r="G216" s="3">
         <v>20.6</v>
       </c>
-      <c r="H126" s="1">
+      <c r="H216" s="2">
         <v>22.6</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A127" s="7">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A217">
         <v>107.5</v>
       </c>
-      <c r="B127" s="1">
+      <c r="B217" s="2">
         <v>13.6</v>
       </c>
-      <c r="C127" s="2">
+      <c r="C217" s="3">
         <v>14.7</v>
       </c>
-      <c r="D127" s="3">
+      <c r="D217" s="4">
         <v>16</v>
       </c>
-      <c r="E127" s="4">
+      <c r="E217" s="5">
         <v>17.399999999999999</v>
       </c>
-      <c r="F127" s="5">
+      <c r="F217" s="4">
         <v>19</v>
       </c>
-      <c r="G127" s="2">
+      <c r="G217" s="3">
         <v>20.8</v>
       </c>
-      <c r="H127" s="1">
+      <c r="H217" s="2">
         <v>22.8</v>
       </c>
     </row>
-    <row r="128" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A128" s="7">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A218">
         <v>108</v>
       </c>
-      <c r="B128" s="1">
+      <c r="B218" s="2">
         <v>13.7</v>
       </c>
-      <c r="C128" s="2">
+      <c r="C218" s="3">
         <v>14.9</v>
       </c>
-      <c r="D128" s="3">
+      <c r="D218" s="4">
         <v>16.2</v>
       </c>
-      <c r="E128" s="4">
+      <c r="E218" s="5">
         <v>17.600000000000001</v>
       </c>
-      <c r="F128" s="5">
+      <c r="F218" s="4">
         <v>19.2</v>
       </c>
-      <c r="G128" s="2">
+      <c r="G218" s="3">
         <v>21</v>
       </c>
-      <c r="H128" s="1">
+      <c r="H218" s="2">
         <v>23.1</v>
       </c>
     </row>
-    <row r="129" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A129" s="7">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A219">
         <v>108.5</v>
       </c>
-      <c r="B129" s="1">
+      <c r="B219" s="2">
         <v>13.8</v>
       </c>
-      <c r="C129" s="2">
+      <c r="C219" s="3">
         <v>15</v>
       </c>
-      <c r="D129" s="3">
+      <c r="D219" s="4">
         <v>16.3</v>
       </c>
-      <c r="E129" s="4">
+      <c r="E219" s="5">
         <v>17.8</v>
       </c>
-      <c r="F129" s="5">
+      <c r="F219" s="4">
         <v>19.399999999999999</v>
       </c>
-      <c r="G129" s="2">
+      <c r="G219" s="3">
         <v>21.2</v>
       </c>
-      <c r="H129" s="1">
+      <c r="H219" s="2">
         <v>23.3</v>
       </c>
     </row>
-    <row r="130" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A130" s="7">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A220">
         <v>109</v>
       </c>
-      <c r="B130" s="1">
+      <c r="B220" s="2">
         <v>14</v>
       </c>
-      <c r="C130" s="2">
+      <c r="C220" s="3">
         <v>15.1</v>
       </c>
-      <c r="D130" s="3">
+      <c r="D220" s="4">
         <v>16.5</v>
       </c>
-      <c r="E130" s="4">
+      <c r="E220" s="5">
         <v>17.899999999999999</v>
       </c>
-      <c r="F130" s="5">
+      <c r="F220" s="4">
         <v>19.600000000000001</v>
       </c>
-      <c r="G130" s="2">
+      <c r="G220" s="3">
         <v>21.4</v>
       </c>
-      <c r="H130" s="1">
+      <c r="H220" s="2">
         <v>23.6</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A131" s="7">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A221">
         <v>109.5</v>
       </c>
-      <c r="B131" s="1">
+      <c r="B221" s="2">
         <v>14.1</v>
       </c>
-      <c r="C131" s="2">
+      <c r="C221" s="3">
         <v>15.3</v>
       </c>
-      <c r="D131" s="3">
+      <c r="D221" s="4">
         <v>16.600000000000001</v>
       </c>
-      <c r="E131" s="4">
+      <c r="E221" s="5">
         <v>18.100000000000001</v>
       </c>
-      <c r="F131" s="5">
+      <c r="F221" s="4">
         <v>19.8</v>
       </c>
-      <c r="G131" s="2">
+      <c r="G221" s="3">
         <v>21.7</v>
       </c>
-      <c r="H131" s="1">
+      <c r="H221" s="2">
         <v>23.8</v>
       </c>
     </row>
-    <row r="132" spans="1:8" ht="15" x14ac:dyDescent="0.35">
-      <c r="A132" s="7">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A222">
         <v>110</v>
       </c>
-      <c r="B132" s="1">
+      <c r="B222" s="2">
         <v>14.2</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C222" s="3">
         <v>15.4</v>
       </c>
-      <c r="D132" s="3">
+      <c r="D222" s="4">
         <v>16.8</v>
       </c>
-      <c r="E132" s="4">
+      <c r="E222" s="5">
         <v>18.3</v>
       </c>
-      <c r="F132" s="5">
+      <c r="F222" s="4">
         <v>20</v>
       </c>
-      <c r="G132" s="2">
+      <c r="G222" s="3">
         <v>21.9</v>
       </c>
-      <c r="H132" s="1">
+      <c r="H222" s="2">
         <v>24.1</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>